--- a/exe1/tf_idf_matrices/tfidf_feature_importance.xlsx
+++ b/exe1/tf_idf_matrices/tfidf_feature_importance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\איחזור מידע\Information_retrieval\exe1\tf_idf_matrices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DECFF6-C819-4B92-B03B-1A9F81F65078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A-J_Results" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="J-P_Results" sheetId="3" r:id="rId3"/>
     <sheet name="NY-T_Results" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,12 +43,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,7 +56,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,13 +107,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="28.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,41 +437,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07860624829521368</v>
+        <v>7.8606248295213677E-2</v>
       </c>
       <c r="C2">
-        <v>0.008329402048757069</v>
+        <v>8.3294020487570692E-3</v>
       </c>
       <c r="D2">
-        <v>0.07773416825789758</v>
+        <v>7.7734168257897585E-2</v>
       </c>
       <c r="E2">
-        <v>0.03766818251455224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.7668182514552243E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04840541814945909</v>
+        <v>4.840541814945909E-2</v>
       </c>
       <c r="C3">
         <v>0.1245400290149524</v>
       </c>
       <c r="D3">
-        <v>0.05883496903920915</v>
+        <v>5.8834969039209151E-2</v>
       </c>
       <c r="E3">
-        <v>3.087775359974221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.0877753599742208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -454,33 +479,33 @@
         <v>0.1253921272918963</v>
       </c>
       <c r="C4">
-        <v>3.250769651584906</v>
+        <v>3.2507696515849061</v>
       </c>
       <c r="D4">
-        <v>0.07206396804750814</v>
+        <v>7.2063968047508142E-2</v>
       </c>
       <c r="E4">
-        <v>0.06912662906865891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.9126629068658907E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1196204026637289</v>
+        <v>0.11962040266372891</v>
       </c>
       <c r="C5">
-        <v>0.0494935304466798</v>
+        <v>4.9493530446679798E-2</v>
       </c>
       <c r="D5">
-        <v>0.05548722342383816</v>
+        <v>5.5487223423838161E-2</v>
       </c>
       <c r="E5">
-        <v>0.03916201817656004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.9162018176560037E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -488,67 +513,67 @@
         <v>0.119516362032591</v>
       </c>
       <c r="C6">
-        <v>0.01709219409285092</v>
+        <v>1.7092194092850919E-2</v>
       </c>
       <c r="D6">
-        <v>0.07833700949729172</v>
+        <v>7.8337009497291721E-2</v>
       </c>
       <c r="E6">
-        <v>0.08647604985800411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8.6476049858004111E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06897812047881247</v>
+        <v>6.8978120478812466E-2</v>
       </c>
       <c r="C7">
-        <v>0.004931316753493674</v>
+        <v>4.9313167534936744E-3</v>
       </c>
       <c r="D7">
-        <v>0.09488299074301665</v>
+        <v>9.4882990743016649E-2</v>
       </c>
       <c r="E7">
-        <v>0.0001310104188500337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.3101041885003371E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0500682510854098</v>
+        <v>5.0068251085409798E-2</v>
       </c>
       <c r="C8">
-        <v>0.1554037539917271</v>
+        <v>0.15540375399172709</v>
       </c>
       <c r="D8">
         <v>0.1151779296141713</v>
       </c>
       <c r="E8">
-        <v>7.266941219358702E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7.2669412193587021E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08484185768512642</v>
+        <v>8.4841857685126421E-2</v>
       </c>
       <c r="C9">
-        <v>0.07879243387546027</v>
+        <v>7.8792433875460269E-2</v>
       </c>
       <c r="D9">
-        <v>0.05853727185772306</v>
+        <v>5.8537271857723061E-2</v>
       </c>
       <c r="E9">
-        <v>0.1438466007217064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.14384660072170641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -556,441 +581,441 @@
         <v>0.1049442074880889</v>
       </c>
       <c r="C10">
-        <v>0.08698301377164863</v>
+        <v>8.6983013771648632E-2</v>
       </c>
       <c r="D10">
-        <v>0.08269930800550629</v>
+        <v>8.2699308005506289E-2</v>
       </c>
       <c r="E10">
-        <v>0.2123787001270354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.21237870012703541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08191385555041908</v>
+        <v>8.1913855550419079E-2</v>
       </c>
       <c r="C11">
-        <v>0.02829072732564105</v>
+        <v>2.829072732564105E-2</v>
       </c>
       <c r="D11">
-        <v>0.04029593451366931</v>
+        <v>4.0295934513669307E-2</v>
       </c>
       <c r="E11">
-        <v>0.01673572452662082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.673572452662082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05818909058726041</v>
+        <v>5.8189090587260413E-2</v>
       </c>
       <c r="C12">
-        <v>0.007123815993647619</v>
+        <v>7.1238159936476194E-3</v>
       </c>
       <c r="D12">
-        <v>0.06593483646183973</v>
+        <v>6.593483646183973E-2</v>
       </c>
       <c r="E12">
-        <v>0.2054914232126913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.20549142321269129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07665204866613284</v>
+        <v>7.6652048666132844E-2</v>
       </c>
       <c r="C13">
-        <v>0.01358921029363354</v>
+        <v>1.358921029363354E-2</v>
       </c>
       <c r="D13">
-        <v>0.0210010338644504</v>
+        <v>2.1001033864450399E-2</v>
       </c>
       <c r="E13">
-        <v>0.02367514016913441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>2.3675140169134409E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07926377249231176</v>
+        <v>7.9263772492311757E-2</v>
       </c>
       <c r="C14">
         <v>0.1203999078872186</v>
       </c>
       <c r="D14">
-        <v>0.07574817724593674</v>
+        <v>7.5748177245936743E-2</v>
       </c>
       <c r="E14">
         <v>0.1138828866865043</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0427691891963291</v>
+        <v>4.2769189196329098E-2</v>
       </c>
       <c r="C15">
-        <v>0.0423115313793732</v>
+        <v>4.2311531379373199E-2</v>
       </c>
       <c r="D15">
-        <v>0.07798056800741771</v>
+        <v>7.7980568007417705E-2</v>
       </c>
       <c r="E15">
-        <v>0.2152180757239577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.21521807572395771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07661945216873756</v>
+        <v>7.6619452168737556E-2</v>
       </c>
       <c r="C16">
-        <v>0.005601065050687125</v>
+        <v>5.6010650506871252E-3</v>
       </c>
       <c r="D16">
-        <v>0.05108363991223075</v>
+        <v>5.1083639912230749E-2</v>
       </c>
       <c r="E16">
-        <v>0.003053835165780434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3.0538351657804341E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.07424732565094216</v>
+        <v>7.4247325650942164E-2</v>
       </c>
       <c r="C17">
-        <v>4.544846587930619E-06</v>
+        <v>4.5448465879306188E-6</v>
       </c>
       <c r="D17">
-        <v>0.07604395519539886</v>
+        <v>7.604395519539886E-2</v>
       </c>
       <c r="E17">
-        <v>0.0008835712775629857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>8.8357127756298571E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07556129256981126</v>
+        <v>7.5561292569811256E-2</v>
       </c>
       <c r="C18">
-        <v>0.0010728762621333</v>
+        <v>1.0728762621333E-3</v>
       </c>
       <c r="D18">
         <v>0.1020974726264121</v>
       </c>
       <c r="E18">
-        <v>0.4119029713055707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.41190297130557069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09010980403601465</v>
+        <v>9.0109804036014651E-2</v>
       </c>
       <c r="C19">
         <v>0.1335530523543437</v>
       </c>
       <c r="D19">
-        <v>0.06570269995190903</v>
+        <v>6.5702699951909027E-2</v>
       </c>
       <c r="E19">
-        <v>0.06370885035504795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>6.3708850355047947E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0595897235270253</v>
+        <v>5.9589723527025303E-2</v>
       </c>
       <c r="C20">
-        <v>0.01133223359639745</v>
+        <v>1.1332233596397449E-2</v>
       </c>
       <c r="D20">
-        <v>0.05131989040375329</v>
+        <v>5.1319890403753288E-2</v>
       </c>
       <c r="E20">
-        <v>0.04172941010443677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4.1729410104436773E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.08860328017869912</v>
+        <v>8.8603280178699118E-2</v>
       </c>
       <c r="C21">
-        <v>0.002619645328511638</v>
+        <v>2.6196453285116379E-3</v>
       </c>
       <c r="D21">
-        <v>0.04050070876755907</v>
+        <v>4.0500708767559068E-2</v>
       </c>
       <c r="E21">
-        <v>0.002003055034698939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2.0030550346989391E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.05570470293188112</v>
+        <v>5.5704702931881123E-2</v>
       </c>
       <c r="C22">
-        <v>0.0157940479719904</v>
+        <v>1.57940479719904E-2</v>
       </c>
       <c r="D22">
-        <v>0.07130340941408875</v>
+        <v>7.1303409414088748E-2</v>
       </c>
       <c r="E22">
-        <v>0.1583742980808091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.15837429808080911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.06307971402634216</v>
+        <v>6.307971402634216E-2</v>
       </c>
       <c r="C23">
-        <v>0.07535762172496516</v>
+        <v>7.5357621724965157E-2</v>
       </c>
       <c r="D23">
-        <v>0.07455120663794146</v>
+        <v>7.4551206637941458E-2</v>
       </c>
       <c r="E23">
-        <v>0.006684528618382101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>6.6845286183821011E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0379437664637714</v>
+        <v>3.79437664637714E-2</v>
       </c>
       <c r="C24">
-        <v>0.05002536253585564</v>
+        <v>5.0025362535855641E-2</v>
       </c>
       <c r="D24">
-        <v>0.06794251959683995</v>
+        <v>6.7942519596839945E-2</v>
       </c>
       <c r="E24">
-        <v>0.03831236436556622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>3.8312364365566218E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0611030210097967</v>
+        <v>6.1103021009796699E-2</v>
       </c>
       <c r="C25">
-        <v>0.1263450815421978</v>
+        <v>0.12634508154219781</v>
       </c>
       <c r="D25">
-        <v>0.06345669816158206</v>
+        <v>6.3456698161582059E-2</v>
       </c>
       <c r="E25">
         <v>0.1959684984987444</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.05907341552341405</v>
+        <v>5.9073415523414052E-2</v>
       </c>
       <c r="C26">
-        <v>0.3336239839521351</v>
+        <v>0.33362398395213511</v>
       </c>
       <c r="D26">
-        <v>0.08087180635877589</v>
+        <v>8.0871806358775888E-2</v>
       </c>
       <c r="E26">
-        <v>0.05232772193945807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>5.2327721939458068E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.05348681611952766</v>
+        <v>5.3486816119527658E-2</v>
       </c>
       <c r="C27">
-        <v>0.09841243389539103</v>
+        <v>9.8412433895391033E-2</v>
       </c>
       <c r="D27">
-        <v>0.07843299626131217</v>
+        <v>7.8432996261312171E-2</v>
       </c>
       <c r="E27">
-        <v>0.1488868154203875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.14888681542038751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.08097383472014141</v>
+        <v>8.0973834720141413E-2</v>
       </c>
       <c r="C28">
-        <v>0.123739650662621</v>
+        <v>0.12373965066262101</v>
       </c>
       <c r="D28">
-        <v>0.08336165411838992</v>
+        <v>8.3361654118389916E-2</v>
       </c>
       <c r="E28">
         <v>0.1066300026173508</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.06702327982039291</v>
+        <v>6.7023279820392911E-2</v>
       </c>
       <c r="C29">
-        <v>0.02402866472749467</v>
+        <v>2.402866472749467E-2</v>
       </c>
       <c r="D29">
-        <v>0.007302244900695865</v>
+        <v>7.3022449006958654E-3</v>
       </c>
       <c r="E29">
-        <v>0.01647634932996365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>1.6476349329963651E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.05259068508713516</v>
+        <v>5.2590685087135158E-2</v>
       </c>
       <c r="C30">
-        <v>0.1649815275400267</v>
+        <v>0.16498152754002671</v>
       </c>
       <c r="D30">
-        <v>0.09524899638641715</v>
+        <v>9.5248996386417151E-2</v>
       </c>
       <c r="E30">
-        <v>0.1788750526897719</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.17887505268977191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.06926162033895711</v>
+        <v>6.9261620338957108E-2</v>
       </c>
       <c r="C31">
-        <v>0.007113586728350158</v>
+        <v>7.1135867283501578E-3</v>
       </c>
       <c r="D31">
         <v>0.1122284747496682</v>
       </c>
       <c r="E31">
-        <v>0.08374748219209111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>8.3747482192091105E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.05345186388543333</v>
+        <v>5.3451863885433333E-2</v>
       </c>
       <c r="C32">
-        <v>0.02916764214143281</v>
+        <v>2.916764214143281E-2</v>
       </c>
       <c r="D32">
-        <v>0.07468386868317367</v>
+        <v>7.4683868683173671E-2</v>
       </c>
       <c r="E32">
-        <v>0.0312538176635799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>3.1253817663579903E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.04779882813073955</v>
+        <v>4.7798828130739553E-2</v>
       </c>
       <c r="C33">
-        <v>0.01862682355073169</v>
+        <v>1.862682355073169E-2</v>
       </c>
       <c r="D33">
-        <v>0.06116173599084851</v>
+        <v>6.1161735990848509E-2</v>
       </c>
       <c r="E33">
-        <v>0.1261564158286483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.12615641582864831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.04225368606265589</v>
+        <v>4.2253686062655893E-2</v>
       </c>
       <c r="C34">
-        <v>0.004254626485075777</v>
+        <v>4.2546264850757774E-3</v>
       </c>
       <c r="D34">
-        <v>0.03495437498226961</v>
+        <v>3.4954374982269609E-2</v>
       </c>
       <c r="E34">
-        <v>0.02856713116078423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>2.8567131160784229E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.03882522432143509</v>
+        <v>3.8825224321435092E-2</v>
       </c>
       <c r="C35">
         <v>0.1386049738225405</v>
       </c>
       <c r="D35">
-        <v>0.07209939120923625</v>
+        <v>7.2099391209236252E-2</v>
       </c>
       <c r="E35">
-        <v>0.01169694133528783</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1.1696941335287829E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -998,33 +1023,33 @@
         <v>0.1094136782486554</v>
       </c>
       <c r="C36">
-        <v>0.008346534953731673</v>
+        <v>8.3465349537316727E-3</v>
       </c>
       <c r="D36">
         <v>0.1067838679174193</v>
       </c>
       <c r="E36">
-        <v>0.2353275900138624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.23532759001386239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.06658002095486792</v>
+        <v>6.6580020954867924E-2</v>
       </c>
       <c r="C37">
-        <v>0.03643231289219296</v>
+        <v>3.643231289219296E-2</v>
       </c>
       <c r="D37">
-        <v>0.0895459218867265</v>
+        <v>8.9545921886726498E-2</v>
       </c>
       <c r="E37">
-        <v>0.04557351419832023</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>4.5573514198320231E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1032,84 +1057,84 @@
         <v>0.1041559264233456</v>
       </c>
       <c r="C38">
-        <v>0.0543092144817577</v>
+        <v>5.4309214481757698E-2</v>
       </c>
       <c r="D38">
-        <v>0.02534891871376299</v>
+        <v>2.5348918713762991E-2</v>
       </c>
       <c r="E38">
-        <v>0.05346631579921112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>5.3466315799211121E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.09175622522187554</v>
+        <v>9.1756225221875543E-2</v>
       </c>
       <c r="C39">
-        <v>0.07210534539839072</v>
+        <v>7.2105345398390724E-2</v>
       </c>
       <c r="D39">
-        <v>0.07990592756958348</v>
+        <v>7.9905927569583479E-2</v>
       </c>
       <c r="E39">
-        <v>0.09516489976620242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>9.5164899766202418E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.06444465318398018</v>
+        <v>6.4444653183980183E-2</v>
       </c>
       <c r="C40">
-        <v>0.004215035549533722</v>
+        <v>4.2150355495337221E-3</v>
       </c>
       <c r="D40">
-        <v>0.0430139568853305</v>
+        <v>4.3013956885330502E-2</v>
       </c>
       <c r="E40">
         <v>0.1512730889054254</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0937815326511986</v>
+        <v>9.3781532651198596E-2</v>
       </c>
       <c r="C41">
-        <v>0.006663708317174344</v>
+        <v>6.663708317174344E-3</v>
       </c>
       <c r="D41">
-        <v>0.03540658481642467</v>
+        <v>3.5406584816424669E-2</v>
       </c>
       <c r="E41">
-        <v>0.07064819570707129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>7.0648195707071287E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.04615787406546512</v>
+        <v>4.6157874065465121E-2</v>
       </c>
       <c r="C42">
-        <v>0.01332551895215062</v>
+        <v>1.332551895215062E-2</v>
       </c>
       <c r="D42">
-        <v>0.08523509852748656</v>
+        <v>8.5235098527486564E-2</v>
       </c>
       <c r="E42">
-        <v>0.1272417616544406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.12724176165444059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1117,373 +1142,373 @@
         <v>0.1149319171745362</v>
       </c>
       <c r="C43">
-        <v>0.003077298492788394</v>
+        <v>3.0772984927883939E-3</v>
       </c>
       <c r="D43">
-        <v>0.08154974182501262</v>
+        <v>8.1549741825012623E-2</v>
       </c>
       <c r="E43">
-        <v>0.002721702782201961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.7217027822019611E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.08034874244533641</v>
+        <v>8.0348742445336407E-2</v>
       </c>
       <c r="C44">
-        <v>0.1763061179299319</v>
+        <v>0.17630611792993189</v>
       </c>
       <c r="D44">
-        <v>0.07228281405190962</v>
+        <v>7.2282814051909616E-2</v>
       </c>
       <c r="E44">
-        <v>0.02073404629665133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>2.0734046296651331E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.02167184049634852</v>
+        <v>2.1671840496348519E-2</v>
       </c>
       <c r="C45">
-        <v>0.05511273320853308</v>
+        <v>5.5112733208533077E-2</v>
       </c>
       <c r="D45">
-        <v>0.04965926515569064</v>
+        <v>4.9659265155690642E-2</v>
       </c>
       <c r="E45">
-        <v>0.0411703540787498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>4.1170354078749798E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1205319096744557</v>
+        <v>0.12053190967445571</v>
       </c>
       <c r="C46">
-        <v>0.1539312053401548</v>
+        <v>0.15393120534015481</v>
       </c>
       <c r="D46">
-        <v>0.09756676102229211</v>
+        <v>9.7566761022292114E-2</v>
       </c>
       <c r="E46">
-        <v>0.008010174674889878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>8.0101746748898785E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.09271208822478538</v>
+        <v>9.2712088224785383E-2</v>
       </c>
       <c r="C47">
         <v>0.1210203637602147</v>
       </c>
       <c r="D47">
-        <v>0.03602217289783782</v>
+        <v>3.6022172897837823E-2</v>
       </c>
       <c r="E47">
-        <v>0.0425246824976513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>4.2524682497651303E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.03973209639412456</v>
+        <v>3.9732096394124561E-2</v>
       </c>
       <c r="C48">
         <v>0.1200270400207397</v>
       </c>
       <c r="D48">
-        <v>0.04704517189258928</v>
+        <v>4.7045171892589277E-2</v>
       </c>
       <c r="E48">
-        <v>0.1140786232361592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.11407862323615919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0424128342161636</v>
+        <v>4.2412834216163597E-2</v>
       </c>
       <c r="C49">
-        <v>0.003851847485304832</v>
+        <v>3.8518474853048322E-3</v>
       </c>
       <c r="D49">
-        <v>0.030127351182764</v>
+        <v>3.0127351182763999E-2</v>
       </c>
       <c r="E49">
-        <v>0.06128372441591136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>6.1283724415911359E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.09198147466267037</v>
+        <v>9.1981474662670371E-2</v>
       </c>
       <c r="C50">
-        <v>0.0001882134322699684</v>
+        <v>1.8821343226996839E-4</v>
       </c>
       <c r="D50">
-        <v>0.04487582964381565</v>
+        <v>4.4875829643815653E-2</v>
       </c>
       <c r="E50">
-        <v>0.04473025040067372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>4.4730250400673723E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0826198442834376</v>
+        <v>8.2619844283437605E-2</v>
       </c>
       <c r="C51">
-        <v>0.005631676682998982</v>
+        <v>5.6316766829989824E-3</v>
       </c>
       <c r="D51">
-        <v>0.03703756184993323</v>
+        <v>3.7037561849933232E-2</v>
       </c>
       <c r="E51">
-        <v>0.01840181275015168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1.840181275015168E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.06223009079030084</v>
+        <v>6.223009079030084E-2</v>
       </c>
       <c r="C52">
-        <v>0.05083762125886784</v>
+        <v>5.0837621258867843E-2</v>
       </c>
       <c r="D52">
-        <v>0.07105665767708302</v>
+        <v>7.1056657677083024E-2</v>
       </c>
       <c r="E52">
-        <v>0.1253039704549457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.12530397045494571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.07204661752092845</v>
+        <v>7.2046617520928447E-2</v>
       </c>
       <c r="C53">
-        <v>0.09961366678368677</v>
+        <v>9.9613666783686772E-2</v>
       </c>
       <c r="D53">
         <v>0.1246518137773351</v>
       </c>
       <c r="E53">
-        <v>0.08648126935561781</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>8.6481269355617812E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0633850734357837</v>
+        <v>6.3385073435783701E-2</v>
       </c>
       <c r="C54">
-        <v>0.02549590983987068</v>
+        <v>2.5495909839870681E-2</v>
       </c>
       <c r="D54">
-        <v>0.02025973039033424</v>
+        <v>2.0259730390334241E-2</v>
       </c>
       <c r="E54">
-        <v>0.1230295972555012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.12302959725550119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.07456365891781025</v>
+        <v>7.4563658917810249E-2</v>
       </c>
       <c r="C55">
-        <v>0.02629392358114657</v>
+        <v>2.6293923581146569E-2</v>
       </c>
       <c r="D55">
         <v>0.1013848864467379</v>
       </c>
       <c r="E55">
-        <v>0.04232933167720293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>4.232933167720293E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.05731457996754186</v>
+        <v>5.7314579967541857E-2</v>
       </c>
       <c r="C56">
-        <v>0.01621485246065082</v>
+        <v>1.6214852460650821E-2</v>
       </c>
       <c r="D56">
-        <v>0.05127849699766784</v>
+        <v>5.1278496997667837E-2</v>
       </c>
       <c r="E56">
-        <v>0.09597543929704808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>9.5975439297048076E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.08655146885967113</v>
+        <v>8.6551468859671132E-2</v>
       </c>
       <c r="C57">
-        <v>0.1093239914100328</v>
+        <v>0.10932399141003279</v>
       </c>
       <c r="D57">
-        <v>0.04886003845004461</v>
+        <v>4.8860038450044607E-2</v>
       </c>
       <c r="E57">
-        <v>0.03082435473018508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>3.0824354730185081E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.06159566808775341</v>
+        <v>6.1595668087753408E-2</v>
       </c>
       <c r="C58">
-        <v>0.03571817850245582</v>
+        <v>3.5718178502455823E-2</v>
       </c>
       <c r="D58">
-        <v>0.03796723320331674</v>
+        <v>3.7967233203316741E-2</v>
       </c>
       <c r="E58">
-        <v>0.04319842619464478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>4.3198426194644778E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.08380638487351377</v>
+        <v>8.3806384873513773E-2</v>
       </c>
       <c r="C59">
-        <v>0.01357434598923728</v>
+        <v>1.357434598923728E-2</v>
       </c>
       <c r="D59">
-        <v>0.07180458914320531</v>
+        <v>7.1804589143205311E-2</v>
       </c>
       <c r="E59">
-        <v>0.1305559044949502</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.13055590449495019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.04070144502812778</v>
+        <v>4.0701445028127781E-2</v>
       </c>
       <c r="C60">
-        <v>0.02412193613452116</v>
+        <v>2.4121936134521162E-2</v>
       </c>
       <c r="D60">
-        <v>0.03759518776630277</v>
+        <v>3.7595187766302773E-2</v>
       </c>
       <c r="E60">
-        <v>0.06342451429295895</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>6.342451429295895E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.07959190252504134</v>
+        <v>7.9591902525041336E-2</v>
       </c>
       <c r="C61">
-        <v>0.02963467968232128</v>
+        <v>2.963467968232128E-2</v>
       </c>
       <c r="D61">
-        <v>0.06414097052124168</v>
+        <v>6.414097052124168E-2</v>
       </c>
       <c r="E61">
-        <v>0.01467540892219867</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1.4675408922198671E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.05014920866295514</v>
+        <v>5.0149208662955143E-2</v>
       </c>
       <c r="C62">
-        <v>0.008719058197650819</v>
+        <v>8.7190581976508193E-3</v>
       </c>
       <c r="D62">
-        <v>0.08293151418252775</v>
+        <v>8.2931514182527755E-2</v>
       </c>
       <c r="E62">
-        <v>0.07489476525220071</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>7.4894765252200707E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09130521199880182</v>
+        <v>9.1305211998801816E-2</v>
       </c>
       <c r="C63">
         <v>0.1777986631673269</v>
       </c>
       <c r="D63">
-        <v>0.08319250392522282</v>
+        <v>8.3192503925222816E-2</v>
       </c>
       <c r="E63">
-        <v>0.09317105864808281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>9.3171058648082811E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.03296316251200926</v>
+        <v>3.2963162512009259E-2</v>
       </c>
       <c r="C64">
-        <v>0.07157464634466734</v>
+        <v>7.1574646344667342E-2</v>
       </c>
       <c r="D64">
-        <v>0.02288115570931937</v>
+        <v>2.2881155709319371E-2</v>
       </c>
       <c r="E64">
-        <v>0.0154953774536992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>1.5495377453699199E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1491,381 +1516,381 @@
         <v>0.1061006306797299</v>
       </c>
       <c r="C65">
-        <v>0.06722836364204561</v>
+        <v>6.722836364204561E-2</v>
       </c>
       <c r="D65">
-        <v>0.02099596253465608</v>
+        <v>2.099596253465608E-2</v>
       </c>
       <c r="E65">
-        <v>0.02760891649331589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>2.7608916493315889E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.04562682710685717</v>
+        <v>4.5626827106857171E-2</v>
       </c>
       <c r="C66">
-        <v>0.07636956770036503</v>
+        <v>7.6369567700365029E-2</v>
       </c>
       <c r="D66">
-        <v>0.05234939889189039</v>
+        <v>5.2349398891890393E-2</v>
       </c>
       <c r="E66">
-        <v>0.0005547376326944598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>5.5473763269445978E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.06849397104240884</v>
+        <v>6.8493971042408841E-2</v>
       </c>
       <c r="C67">
-        <v>0.02900414971253401</v>
+        <v>2.9004149712534011E-2</v>
       </c>
       <c r="D67">
         <v>0.1115863425998818</v>
       </c>
       <c r="E67">
-        <v>0.05966648386240708</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>5.9666483862407083E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.05934973276185107</v>
+        <v>5.9349732761851071E-2</v>
       </c>
       <c r="C68">
-        <v>0.07527565470559118</v>
+        <v>7.527565470559118E-2</v>
       </c>
       <c r="D68">
-        <v>0.02755957693206557</v>
+        <v>2.7559576932065569E-2</v>
       </c>
       <c r="E68">
-        <v>0.247944154655112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.24794415465511199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.02557099916067496</v>
+        <v>2.557099916067496E-2</v>
       </c>
       <c r="C69">
-        <v>0.05247711166432731</v>
+        <v>5.2477111664327308E-2</v>
       </c>
       <c r="D69">
-        <v>0.04956453868233823</v>
+        <v>4.9564538682338233E-2</v>
       </c>
       <c r="E69">
-        <v>0.009243507230663979</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>9.243507230663979E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.03099573077145612</v>
+        <v>3.099573077145612E-2</v>
       </c>
       <c r="C70">
-        <v>0.04089903609149921</v>
+        <v>4.0899036091499211E-2</v>
       </c>
       <c r="D70">
         <v>0.1305747038723479</v>
       </c>
       <c r="E70">
-        <v>0.00889119963828652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>8.8911996382865198E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.09130113591599809</v>
+        <v>9.1301135915998088E-2</v>
       </c>
       <c r="C71">
-        <v>0.2551362649849793</v>
+        <v>0.25513626498497932</v>
       </c>
       <c r="D71">
-        <v>0.05563898885533236</v>
+        <v>5.5638988855332361E-2</v>
       </c>
       <c r="E71">
-        <v>0.08493275796011432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>8.4932757960114319E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.03117431670736392</v>
+        <v>3.1174316707363921E-2</v>
       </c>
       <c r="C72">
-        <v>0.07200159878604044</v>
+        <v>7.2001598786040441E-2</v>
       </c>
       <c r="D72">
-        <v>0.06257886736527163</v>
+        <v>6.2578867365271629E-2</v>
       </c>
       <c r="E72">
-        <v>0.02805520897555426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>2.8055208975554261E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1003424176040189</v>
+        <v>0.10034241760401889</v>
       </c>
       <c r="C73">
-        <v>0.1273928131240392</v>
+        <v>0.12739281312403919</v>
       </c>
       <c r="D73">
-        <v>0.08967291758430718</v>
+        <v>8.9672917584307177E-2</v>
       </c>
       <c r="E73">
-        <v>0.09793567148643681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>9.7935671486436809E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.06530127473213887</v>
+        <v>6.530127473213887E-2</v>
       </c>
       <c r="C74">
-        <v>0.1186326736075154</v>
+        <v>0.11863267360751539</v>
       </c>
       <c r="D74">
-        <v>0.08030041716155534</v>
+        <v>8.0300417161555337E-2</v>
       </c>
       <c r="E74">
-        <v>0.1104976201734564</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.11049762017345641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0731675406584511</v>
+        <v>7.3167540658451102E-2</v>
       </c>
       <c r="C75">
-        <v>0.2821760707771714</v>
+        <v>0.28217607077717138</v>
       </c>
       <c r="D75">
-        <v>0.08022258264405857</v>
+        <v>8.0222582644058571E-2</v>
       </c>
       <c r="E75">
-        <v>0.05415538314029779</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>5.4155383140297789E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.04936379409253289</v>
+        <v>4.9363794092532887E-2</v>
       </c>
       <c r="C76">
-        <v>0.01313659269885291</v>
+        <v>1.313659269885291E-2</v>
       </c>
       <c r="D76">
-        <v>0.07850708309960841</v>
+        <v>7.850708309960841E-2</v>
       </c>
       <c r="E76">
-        <v>0.1169378185630947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.11693781856309469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0475365012949156</v>
+        <v>4.7536501294915601E-2</v>
       </c>
       <c r="C77">
-        <v>0.01477228567855399</v>
+        <v>1.477228567855399E-2</v>
       </c>
       <c r="D77">
-        <v>0.0351839667754239</v>
+        <v>3.5183966775423903E-2</v>
       </c>
       <c r="E77">
-        <v>0.03634105015456009</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>3.6341050154560087E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.03755099786820715</v>
+        <v>3.7550997868207148E-2</v>
       </c>
       <c r="C78">
-        <v>0.2829698146521123</v>
+        <v>0.28296981465211229</v>
       </c>
       <c r="D78">
-        <v>0.06248095134532239</v>
+        <v>6.2480951345322389E-2</v>
       </c>
       <c r="E78">
-        <v>0.04515742259935993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>4.5157422599359932E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.035133254199879</v>
+        <v>3.5133254199878998E-2</v>
       </c>
       <c r="C79">
-        <v>0.06085340551687332</v>
+        <v>6.0853405516873321E-2</v>
       </c>
       <c r="D79">
-        <v>0.09730077408843885</v>
+        <v>9.7300774088438846E-2</v>
       </c>
       <c r="E79">
-        <v>0.1738755850066727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.17387558500667269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.09233810234477757</v>
+        <v>9.2338102344777573E-2</v>
       </c>
       <c r="C80">
-        <v>0.02825781999476495</v>
+        <v>2.8257819994764951E-2</v>
       </c>
       <c r="D80">
-        <v>0.04137908859798767</v>
+        <v>4.1379088597987668E-2</v>
       </c>
       <c r="E80">
-        <v>0.02907268838665204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>2.907268838665204E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.04521427606046147</v>
+        <v>4.5214276060461467E-2</v>
       </c>
       <c r="C81">
-        <v>0.04127806863922821</v>
+        <v>4.1278068639228213E-2</v>
       </c>
       <c r="D81">
-        <v>0.01160861072775532</v>
+        <v>1.160861072775532E-2</v>
       </c>
       <c r="E81">
-        <v>0.009406257807482249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>9.4062578074822489E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.04027847851994526</v>
+        <v>4.027847851994526E-2</v>
       </c>
       <c r="C82">
-        <v>0.07873130418195429</v>
+        <v>7.8731304181954287E-2</v>
       </c>
       <c r="D82">
-        <v>0.05475192360856784</v>
+        <v>5.4751923608567843E-2</v>
       </c>
       <c r="E82">
-        <v>0.2335580569869088</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.23355805698690879</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0433902929344081</v>
+        <v>4.3390292934408103E-2</v>
       </c>
       <c r="C83">
-        <v>0.2436760500718874</v>
+        <v>0.24367605007188739</v>
       </c>
       <c r="D83">
-        <v>0.07549585140876913</v>
+        <v>7.5495851408769132E-2</v>
       </c>
       <c r="E83">
-        <v>0.06366882766275027</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>6.3668827662750269E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.07426857834123601</v>
+        <v>7.4268578341236013E-2</v>
       </c>
       <c r="C84">
-        <v>0.0003700533160117176</v>
+        <v>3.7005331601171762E-4</v>
       </c>
       <c r="D84">
-        <v>0.1324809471675368</v>
+        <v>0.13248094716753681</v>
       </c>
       <c r="E84">
-        <v>0.02543172066777557</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>2.5431720667775569E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.08176298695946338</v>
+        <v>8.176298695946338E-2</v>
       </c>
       <c r="C85">
-        <v>0.09010277579017337</v>
+        <v>9.0102775790173367E-2</v>
       </c>
       <c r="D85">
-        <v>0.0560043780999635</v>
+        <v>5.6004378099963503E-2</v>
       </c>
       <c r="E85">
-        <v>0.007411596210846579</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>7.4115962108465792E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.08674389227022372</v>
+        <v>8.6743892270223721E-2</v>
       </c>
       <c r="C86">
         <v>0.1070452709997383</v>
       </c>
       <c r="D86">
-        <v>0.07607525019906691</v>
+        <v>7.6075250199066913E-2</v>
       </c>
       <c r="E86">
-        <v>0.1312846899750851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.13128468997508511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1091854809988451</v>
+        <v>0.10918548099884511</v>
       </c>
       <c r="C87">
-        <v>0.125186120993736</v>
+        <v>0.12518612099373599</v>
       </c>
       <c r="D87">
         <v>0.1171728241739463</v>
@@ -1874,242 +1899,242 @@
         <v>0.1321724433117451</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.004064664154979525</v>
+        <v>4.0646641549795248E-3</v>
       </c>
       <c r="C88">
-        <v>0.01845735384966498</v>
+        <v>1.845735384966498E-2</v>
       </c>
       <c r="D88">
-        <v>0.03306042432181466</v>
+        <v>3.3060424321814663E-2</v>
       </c>
       <c r="E88">
-        <v>0.05602405117764174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>5.602405117764174E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0260150822509273</v>
+        <v>2.6015082250927302E-2</v>
       </c>
       <c r="C89">
-        <v>0.01259993673717487</v>
+        <v>1.2599936737174871E-2</v>
       </c>
       <c r="D89">
-        <v>0.09361214723486322</v>
+        <v>9.3612147234863219E-2</v>
       </c>
       <c r="E89">
-        <v>0.08720683467430018</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>8.7206834674300182E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.06934202996973649</v>
+        <v>6.9342029969736485E-2</v>
       </c>
       <c r="C90">
-        <v>0.03419486394604118</v>
+        <v>3.4194863946041182E-2</v>
       </c>
       <c r="D90">
-        <v>0.05078659597571966</v>
+        <v>5.0786595975719662E-2</v>
       </c>
       <c r="E90">
-        <v>0.03919603975601504</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>3.9196039756015037E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.09083151401973866</v>
+        <v>9.0831514019738657E-2</v>
       </c>
       <c r="C91">
-        <v>0.003924270806291603</v>
+        <v>3.9242708062916026E-3</v>
       </c>
       <c r="D91">
-        <v>0.03066623315091155</v>
+        <v>3.0666233150911552E-2</v>
       </c>
       <c r="E91">
         <v>0.1269780844378966</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.08418055176353945</v>
+        <v>8.4180551763539446E-2</v>
       </c>
       <c r="C92">
-        <v>0.1726125750948266</v>
+        <v>0.17261257509482661</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.006522205386580702</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>6.522205386580702E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.05346303135857311</v>
+        <v>5.346303135857311E-2</v>
       </c>
       <c r="C93">
-        <v>0.05573282105725706</v>
+        <v>5.5732821057257062E-2</v>
       </c>
       <c r="D93">
-        <v>0.033425101709049</v>
+        <v>3.3425101709048999E-2</v>
       </c>
       <c r="E93">
-        <v>0.008180535400689581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>8.1805354006895814E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.04957319135694438</v>
+        <v>4.9573191356944379E-2</v>
       </c>
       <c r="C94">
         <v>0.1305803596053603</v>
       </c>
       <c r="D94">
-        <v>0.03338876766046495</v>
+        <v>3.3388767660464953E-2</v>
       </c>
       <c r="E94">
-        <v>0.08868639192104411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>8.8686391921044105E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.08275818391395551</v>
+        <v>8.2758183913955508E-2</v>
       </c>
       <c r="C95">
         <v>0.109049989404534</v>
       </c>
       <c r="D95">
-        <v>0.07059101742405183</v>
+        <v>7.0591017424051827E-2</v>
       </c>
       <c r="E95">
-        <v>0.1263559172443915</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.12635591724439149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0737428858009459</v>
+        <v>7.3742885800945901E-2</v>
       </c>
       <c r="C96">
-        <v>0.005831012255603729</v>
+        <v>5.8310122556037292E-3</v>
       </c>
       <c r="D96">
-        <v>0.0915583434500693</v>
+        <v>9.1558343450069302E-2</v>
       </c>
       <c r="E96">
-        <v>0.05194187425576616</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>5.1941874255766157E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.06510972577237228</v>
+        <v>6.5109725772372284E-2</v>
       </c>
       <c r="C97">
         <v>0.104600418991336</v>
       </c>
       <c r="D97">
-        <v>0.09396419535262313</v>
+        <v>9.3964195352623126E-2</v>
       </c>
       <c r="E97">
-        <v>0.310482629714135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.31048262971413498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1045181056621396</v>
+        <v>0.10451810566213959</v>
       </c>
       <c r="C98">
-        <v>0.05081245903472947</v>
+        <v>5.0812459034729467E-2</v>
       </c>
       <c r="D98">
-        <v>0.06505031578076581</v>
+        <v>6.5050315780765811E-2</v>
       </c>
       <c r="E98">
-        <v>0.0268853050517141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>2.68853050517141E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.05400284708412828</v>
+        <v>5.400284708412828E-2</v>
       </c>
       <c r="C99">
-        <v>0.1708395714351958</v>
+        <v>0.17083957143519579</v>
       </c>
       <c r="D99">
-        <v>0.04824517369578629</v>
+        <v>4.8245173695786292E-2</v>
       </c>
       <c r="E99">
         <v>0.1967368387425743</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.04232682240766805</v>
+        <v>4.2326822407668052E-2</v>
       </c>
       <c r="C100">
-        <v>0.005165380720221675</v>
+        <v>5.1653807202216746E-3</v>
       </c>
       <c r="D100">
-        <v>0.01388233577478548</v>
+        <v>1.388233577478548E-2</v>
       </c>
       <c r="E100">
-        <v>0.03260537938677322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>3.2605379386773221E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.05810883156678481</v>
+        <v>5.8108831566784813E-2</v>
       </c>
       <c r="C101">
-        <v>0.01670367122517957</v>
+        <v>1.6703671225179569E-2</v>
       </c>
       <c r="D101">
-        <v>0.0598262349766423</v>
+        <v>5.9826234976642301E-2</v>
       </c>
       <c r="E101">
-        <v>0.04029748376745978</v>
+        <v>4.0297483767459778E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2118,14 +2143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,330 +2167,330 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1276705850359985</v>
+        <v>0.12767058503599851</v>
       </c>
       <c r="C2">
-        <v>1.575590288642411</v>
+        <v>1.5755902886424109</v>
       </c>
       <c r="D2">
         <v>0.1564366651784854</v>
       </c>
       <c r="E2">
-        <v>3.899757811863526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.8997578118635259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1460164909916037</v>
+        <v>0.14601649099160369</v>
       </c>
       <c r="C3">
-        <v>0.1404547577529811</v>
+        <v>0.14045475775298111</v>
       </c>
       <c r="D3">
-        <v>0.08809590650103782</v>
+        <v>8.8095906501037824E-2</v>
       </c>
       <c r="E3">
-        <v>0.4899167534497452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.48991675344974522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1329787265211604</v>
+        <v>0.13297872652116041</v>
       </c>
       <c r="C4">
-        <v>0.2322067282492239</v>
+        <v>0.23220672824922389</v>
       </c>
       <c r="D4">
-        <v>0.1174785442444422</v>
+        <v>0.11747854424444221</v>
       </c>
       <c r="E4">
-        <v>0.01280166603806698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.280166603806698E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07765368499414449</v>
+        <v>7.765368499414449E-2</v>
       </c>
       <c r="C5">
-        <v>1.886978251259485E-05</v>
+        <v>1.886978251259485E-5</v>
       </c>
       <c r="D5">
         <v>0.145435621753496</v>
       </c>
       <c r="E5">
-        <v>0.8689299823188578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.86892998231885776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03703288184640141</v>
+        <v>3.7032881846401411E-2</v>
       </c>
       <c r="C6">
-        <v>0.01889131835642433</v>
+        <v>1.8891318356424332E-2</v>
       </c>
       <c r="D6">
-        <v>0.07333018547617298</v>
+        <v>7.3330185476172982E-2</v>
       </c>
       <c r="E6">
-        <v>0.05645045464981656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>5.6450454649816559E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1066534875595209</v>
+        <v>0.10665348755952089</v>
       </c>
       <c r="C7">
-        <v>0.02366132277033164</v>
+        <v>2.3661322770331641E-2</v>
       </c>
       <c r="D7">
-        <v>0.05924583873348932</v>
+        <v>5.924583873348932E-2</v>
       </c>
       <c r="E7">
         <v>0.1130731933454056</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08398697116806408</v>
+        <v>8.3986971168064084E-2</v>
       </c>
       <c r="C8">
-        <v>0.09858647798900626</v>
+        <v>9.8586477989006258E-2</v>
       </c>
       <c r="D8">
-        <v>0.09611910552913128</v>
+        <v>9.6119105529131277E-2</v>
       </c>
       <c r="E8">
-        <v>0.1127205540967662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.11272055409676621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08688660503633239</v>
+        <v>8.6886605036332387E-2</v>
       </c>
       <c r="C9">
-        <v>0.1645768846418202</v>
+        <v>0.16457688464182019</v>
       </c>
       <c r="D9">
-        <v>0.08670997189306018</v>
+        <v>8.6709971893060178E-2</v>
       </c>
       <c r="E9">
         <v>0.3501718568615827</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09103891087937033</v>
+        <v>9.1038910879370327E-2</v>
       </c>
       <c r="C10">
-        <v>0.02275450732170091</v>
+        <v>2.2754507321700909E-2</v>
       </c>
       <c r="D10">
-        <v>0.09560743927548754</v>
+        <v>9.5607439275487538E-2</v>
       </c>
       <c r="E10">
-        <v>0.2296920595487753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.22969205954877531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0814757094938301</v>
+        <v>8.1475709493830095E-2</v>
       </c>
       <c r="C11">
-        <v>0.2252529943838102</v>
+        <v>0.22525299438381019</v>
       </c>
       <c r="D11">
-        <v>0.05938619856423699</v>
+        <v>5.9386198564236992E-2</v>
       </c>
       <c r="E11">
-        <v>0.01916588642525421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.916588642525421E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1028148894916174</v>
+        <v>0.10281488949161741</v>
       </c>
       <c r="C12">
-        <v>0.002987343962817968</v>
+        <v>2.9873439628179681E-3</v>
       </c>
       <c r="D12">
-        <v>0.07669843389107234</v>
+        <v>7.6698433891072337E-2</v>
       </c>
       <c r="E12">
-        <v>0.002767519711559947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>2.7675197115599468E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05698971233933037</v>
+        <v>5.6989712339330367E-2</v>
       </c>
       <c r="C13">
-        <v>0.006684400471157204</v>
+        <v>6.6844004711572036E-3</v>
       </c>
       <c r="D13">
-        <v>0.06240089725662412</v>
+        <v>6.2400897256624122E-2</v>
       </c>
       <c r="E13">
-        <v>0.296917047369789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.29691704736978902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.05004725077809913</v>
+        <v>5.0047250778099128E-2</v>
       </c>
       <c r="C14">
-        <v>0.08728437265555955</v>
+        <v>8.728437265555955E-2</v>
       </c>
       <c r="D14">
-        <v>0.09621590066433705</v>
+        <v>9.6215900664337051E-2</v>
       </c>
       <c r="E14">
-        <v>0.1433498319360252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.14334983193602521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0382673721435538</v>
+        <v>3.8267372143553802E-2</v>
       </c>
       <c r="C15">
-        <v>0.004770094095373855</v>
+        <v>4.7700940953738554E-3</v>
       </c>
       <c r="D15">
-        <v>0.0937609965249524</v>
+        <v>9.37609965249524E-2</v>
       </c>
       <c r="E15">
-        <v>0.001112315811783431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1.1123158117834311E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0575633263267501</v>
+        <v>5.7563326326750097E-2</v>
       </c>
       <c r="C16">
-        <v>0.03164250087559595</v>
+        <v>3.1642500875595947E-2</v>
       </c>
       <c r="D16">
-        <v>0.08270734622748988</v>
+        <v>8.2707346227489875E-2</v>
       </c>
       <c r="E16">
-        <v>0.2439777719994934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.24397777199949339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06175622840237738</v>
+        <v>6.1756228402377378E-2</v>
       </c>
       <c r="C17">
-        <v>0.09623588278139597</v>
+        <v>9.6235882781395971E-2</v>
       </c>
       <c r="D17">
-        <v>0.08380244667569237</v>
+        <v>8.3802446675692366E-2</v>
       </c>
       <c r="E17">
-        <v>0.002908666114634571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2.9086661146345708E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07451978186024122</v>
+        <v>7.4519781860241219E-2</v>
       </c>
       <c r="C18">
-        <v>0.05879611423094844</v>
+        <v>5.8796114230948437E-2</v>
       </c>
       <c r="D18">
-        <v>0.08099573533876536</v>
+        <v>8.0995735338765362E-2</v>
       </c>
       <c r="E18">
         <v>0.1308758768753516</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03066284599639246</v>
+        <v>3.0662845996392459E-2</v>
       </c>
       <c r="C19">
-        <v>1.527986903141142E-05</v>
+        <v>1.5279869031411418E-5</v>
       </c>
       <c r="D19">
-        <v>0.1375290932887729</v>
+        <v>0.13752909328877291</v>
       </c>
       <c r="E19">
-        <v>0.02356908250003439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2.3569082500034391E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08133399250762463</v>
+        <v>8.1333992507624631E-2</v>
       </c>
       <c r="C20">
-        <v>0.01340939229564708</v>
+        <v>1.3409392295647081E-2</v>
       </c>
       <c r="D20">
-        <v>0.09639480565269642</v>
+        <v>9.6394805652696425E-2</v>
       </c>
       <c r="E20">
-        <v>0.08043368458483813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>8.0433684584838128E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2473,16 +2498,16 @@
         <v>0.1207671836486366</v>
       </c>
       <c r="C21">
-        <v>0.001159662297293293</v>
+        <v>1.159662297293293E-3</v>
       </c>
       <c r="D21">
         <v>0.1022707216068155</v>
       </c>
       <c r="E21">
-        <v>0.0003697543015777876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>3.6975430157778762E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2490,152 +2515,152 @@
         <v>0.1078109222549954</v>
       </c>
       <c r="C22">
-        <v>0.005930836370523039</v>
+        <v>5.9308363705230394E-3</v>
       </c>
       <c r="D22">
         <v>0.121580240240593</v>
       </c>
       <c r="E22">
-        <v>0.03438268195145928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>3.4382681951459278E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05771524278773121</v>
+        <v>5.7715242787731207E-2</v>
       </c>
       <c r="C23">
-        <v>0.0005422404435334715</v>
+        <v>5.4224044353347149E-4</v>
       </c>
       <c r="D23">
         <v>0.108112979753475</v>
       </c>
       <c r="E23">
-        <v>0.0009409728258724626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>9.4097282587246264E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03189294148749933</v>
+        <v>3.1892941487499327E-2</v>
       </c>
       <c r="C24">
-        <v>0.0008319709615755596</v>
+        <v>8.3197096157555965E-4</v>
       </c>
       <c r="D24">
-        <v>0.09784207482348584</v>
+        <v>9.7842074823485836E-2</v>
       </c>
       <c r="E24">
-        <v>0.02822169303026121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>2.8221693030261209E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.07440202115504913</v>
+        <v>7.4402021155049125E-2</v>
       </c>
       <c r="C25">
-        <v>0.003306010021115703</v>
+        <v>3.3060100211157028E-3</v>
       </c>
       <c r="D25">
-        <v>0.09100723390781651</v>
+        <v>9.1007233907816509E-2</v>
       </c>
       <c r="E25">
-        <v>0.002435322301928904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>2.4353223019289039E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.08029223749608505</v>
+        <v>8.029223749608505E-2</v>
       </c>
       <c r="C26">
         <v>0.1026791461635129</v>
       </c>
       <c r="D26">
-        <v>0.08650748296925537</v>
+        <v>8.6507482969255367E-2</v>
       </c>
       <c r="E26">
-        <v>0.1937395315070556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.19373953150705561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.06047907199317692</v>
+        <v>6.0479071993176918E-2</v>
       </c>
       <c r="C27">
-        <v>0.01730496894898188</v>
+        <v>1.730496894898188E-2</v>
       </c>
       <c r="D27">
-        <v>0.06069662412329624</v>
+        <v>6.0696624123296239E-2</v>
       </c>
       <c r="E27">
         <v>0.1226510767462249</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.09857756837853993</v>
+        <v>9.8577568378539926E-2</v>
       </c>
       <c r="C28">
-        <v>0.0180033239563421</v>
+        <v>1.8003323956342101E-2</v>
       </c>
       <c r="D28">
-        <v>0.07669297417827936</v>
+        <v>7.6692974178279361E-2</v>
       </c>
       <c r="E28">
-        <v>0.248562305420113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.24856230542011301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.05697001907605359</v>
+        <v>5.6970019076053591E-2</v>
       </c>
       <c r="C29">
-        <v>0.08102268477356775</v>
+        <v>8.1022684773567749E-2</v>
       </c>
       <c r="D29">
-        <v>0.06467483125267326</v>
+        <v>6.4674831252673259E-2</v>
       </c>
       <c r="E29">
-        <v>0.01926935536627596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>1.9269355366275959E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.05049338127972058</v>
+        <v>5.0493381279720577E-2</v>
       </c>
       <c r="C30">
-        <v>0.004570705357218085</v>
+        <v>4.5707053572180854E-3</v>
       </c>
       <c r="D30">
-        <v>0.08187704836945509</v>
+        <v>8.1877048369455085E-2</v>
       </c>
       <c r="E30">
-        <v>2.505114692225159E-08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>2.5051146922251591E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2643,38 +2668,38 @@
         <v>0.1222575102246688</v>
       </c>
       <c r="C31">
-        <v>0.0001958634158491246</v>
+        <v>1.9586341584912459E-4</v>
       </c>
       <c r="D31">
-        <v>0.04629546798822481</v>
+        <v>4.6295467988224807E-2</v>
       </c>
       <c r="E31">
-        <v>0.01131308478746141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1.131308478746141E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.06976924678987317</v>
+        <v>6.9769246789873174E-2</v>
       </c>
       <c r="C32">
-        <v>0.09651193920758466</v>
+        <v>9.6511939207584663E-2</v>
       </c>
       <c r="D32">
-        <v>0.06299947570079323</v>
+        <v>6.2999475700793228E-2</v>
       </c>
       <c r="E32">
-        <v>0.01272585598038376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.272585598038376E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.06539246444989399</v>
+        <v>6.5392464449893994E-2</v>
       </c>
       <c r="C33">
         <v>0.1589443366071682</v>
@@ -2683,205 +2708,205 @@
         <v>0.1041073927489224</v>
       </c>
       <c r="E33">
-        <v>0.05105027848502902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>5.1050278485029021E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.09200944364434238</v>
+        <v>9.2009443644342381E-2</v>
       </c>
       <c r="C34">
-        <v>0.0058289500311767</v>
+        <v>5.8289500311767004E-3</v>
       </c>
       <c r="D34">
-        <v>0.08723571025842536</v>
+        <v>8.7235710258425359E-2</v>
       </c>
       <c r="E34">
-        <v>0.04571760738801471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>4.5717607388014711E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.06997193159854032</v>
+        <v>6.9971931598540316E-2</v>
       </c>
       <c r="C35">
-        <v>0.002840169863728464</v>
+        <v>2.8401698637284642E-3</v>
       </c>
       <c r="D35">
-        <v>0.06768806696820495</v>
+        <v>6.7688066968204952E-2</v>
       </c>
       <c r="E35">
-        <v>0.05160041959053861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>5.1600419590538613E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.05121070265865835</v>
+        <v>5.1210702658658347E-2</v>
       </c>
       <c r="C36">
-        <v>0.03140403910805238</v>
+        <v>3.1404039108052381E-2</v>
       </c>
       <c r="D36">
-        <v>0.07985984023007009</v>
+        <v>7.9859840230070089E-2</v>
       </c>
       <c r="E36">
-        <v>0.0001652707418780309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1.652707418780309E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.02676594836417734</v>
+        <v>2.6765948364177339E-2</v>
       </c>
       <c r="C37">
-        <v>0.007065646663212398</v>
+        <v>7.0656466632123983E-3</v>
       </c>
       <c r="D37">
-        <v>0.08013054412163978</v>
+        <v>8.013054412163978E-2</v>
       </c>
       <c r="E37">
-        <v>0.1153258071883417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.11532580718834171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.05482707576043166</v>
+        <v>5.4827075760431658E-2</v>
       </c>
       <c r="C38">
-        <v>0.09739018273736322</v>
+        <v>9.7390182737363218E-2</v>
       </c>
       <c r="D38">
-        <v>0.07023322198950543</v>
+        <v>7.0233221989505434E-2</v>
       </c>
       <c r="E38">
-        <v>0.03828412697657128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>3.8284126976571277E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.05316801866100151</v>
+        <v>5.3168018661001508E-2</v>
       </c>
       <c r="C39">
-        <v>0.01312293712688481</v>
+        <v>1.3122937126884809E-2</v>
       </c>
       <c r="D39">
-        <v>0.1520525398828707</v>
+        <v>0.15205253988287071</v>
       </c>
       <c r="E39">
-        <v>0.07718402653376709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>7.7184026533767089E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.05879121721547942</v>
+        <v>5.8791217215479419E-2</v>
       </c>
       <c r="C40">
-        <v>0.007098556195605003</v>
+        <v>7.0985561956050033E-3</v>
       </c>
       <c r="D40">
         <v>0.1413147504457051</v>
       </c>
       <c r="E40">
-        <v>0.04095385722392705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>4.0953857223927047E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.09684675620023397</v>
+        <v>9.6846756200233974E-2</v>
       </c>
       <c r="C41">
-        <v>0.06060222369850528</v>
+        <v>6.0602223698505278E-2</v>
       </c>
       <c r="D41">
-        <v>0.07691208821323814</v>
+        <v>7.6912088213238139E-2</v>
       </c>
       <c r="E41">
-        <v>0.05853601033097021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>5.8536010330970209E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.07009247741580782</v>
+        <v>7.0092477415807819E-2</v>
       </c>
       <c r="C42">
-        <v>0.0001878668532838282</v>
+        <v>1.8786685328382819E-4</v>
       </c>
       <c r="D42">
-        <v>0.06605119237966472</v>
+        <v>6.6051192379664725E-2</v>
       </c>
       <c r="E42">
-        <v>0.08376502175097106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>8.3765021750971058E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.08552593316693935</v>
+        <v>8.552593316693935E-2</v>
       </c>
       <c r="C43">
         <v>0.1930706729965628</v>
       </c>
       <c r="D43">
-        <v>0.08748939991680382</v>
+        <v>8.7489399916803823E-2</v>
       </c>
       <c r="E43">
-        <v>0.0967083742188846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>9.6708374218884605E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.05238353447487776</v>
+        <v>5.2383534474877758E-2</v>
       </c>
       <c r="C44">
-        <v>0.04361596121297937</v>
+        <v>4.3615961212979372E-2</v>
       </c>
       <c r="D44">
-        <v>0.08262355048119052</v>
+        <v>8.2623550481190522E-2</v>
       </c>
       <c r="E44">
-        <v>0.09405902301480798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>9.405902301480798E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.07080442610759197</v>
+        <v>7.0804426107591967E-2</v>
       </c>
       <c r="C45">
-        <v>0.0479655502824536</v>
+        <v>4.7965550282453598E-2</v>
       </c>
       <c r="D45">
         <v>0.1259284504547438</v>
@@ -2890,199 +2915,199 @@
         <v>0.1600711652680433</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.08338333328541636</v>
+        <v>8.3383333285416361E-2</v>
       </c>
       <c r="C46">
-        <v>0.01320685272581009</v>
+        <v>1.3206852725810091E-2</v>
       </c>
       <c r="D46">
-        <v>0.08330966178985166</v>
+        <v>8.3309661789851663E-2</v>
       </c>
       <c r="E46">
-        <v>0.1078867850990401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.10788678509904009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01355267014176365</v>
+        <v>1.355267014176365E-2</v>
       </c>
       <c r="C47">
-        <v>0.001778057091297216</v>
+        <v>1.7780570912972161E-3</v>
       </c>
       <c r="D47">
-        <v>0.06817619275281683</v>
+        <v>6.8176192752816833E-2</v>
       </c>
       <c r="E47">
-        <v>0.01870634903395686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>1.8706349033956859E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.07488160719478665</v>
+        <v>7.4881607194786648E-2</v>
       </c>
       <c r="C48">
-        <v>0.1909247682970169</v>
+        <v>0.19092476829701691</v>
       </c>
       <c r="D48">
-        <v>0.05240414039856223</v>
+        <v>5.2404140398562227E-2</v>
       </c>
       <c r="E48">
-        <v>0.2023093521838162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.20230935218381621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.04203350020970387</v>
+        <v>4.2033500209703867E-2</v>
       </c>
       <c r="C49">
-        <v>0.001333628637895562</v>
+        <v>1.333628637895562E-3</v>
       </c>
       <c r="D49">
-        <v>0.02762563476006274</v>
+        <v>2.7625634760062742E-2</v>
       </c>
       <c r="E49">
-        <v>0.04777170882333251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>4.7771708823332509E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.08087326734613476</v>
+        <v>8.0873267346134758E-2</v>
       </c>
       <c r="C50">
-        <v>0.02646247500980411</v>
+        <v>2.6462475009804112E-2</v>
       </c>
       <c r="D50">
-        <v>0.09241660624613579</v>
+        <v>9.2416606246135791E-2</v>
       </c>
       <c r="E50">
-        <v>0.003392818334981401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>3.3928183349814008E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.06582138703494556</v>
+        <v>6.5821387034945555E-2</v>
       </c>
       <c r="C51">
-        <v>0.007377340849468908</v>
+        <v>7.377340849468908E-3</v>
       </c>
       <c r="D51">
-        <v>0.05874077994735893</v>
+        <v>5.8740779947358927E-2</v>
       </c>
       <c r="E51">
-        <v>0.00314614672052952</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>3.14614672052952E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.06128938346831925</v>
+        <v>6.1289383468319247E-2</v>
       </c>
       <c r="C52">
-        <v>0.0408858544402014</v>
+        <v>4.0885854440201402E-2</v>
       </c>
       <c r="D52">
-        <v>0.08412805179773275</v>
+        <v>8.412805179773275E-2</v>
       </c>
       <c r="E52">
-        <v>0.003376366236065207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>3.3763662360652069E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.03284423848508378</v>
+        <v>3.2844238485083783E-2</v>
       </c>
       <c r="C53">
-        <v>0.08056783616792952</v>
+        <v>8.0567836167929521E-2</v>
       </c>
       <c r="D53">
-        <v>0.06509935464408834</v>
+        <v>6.5099354644088336E-2</v>
       </c>
       <c r="E53">
-        <v>0.04807732550187856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>4.8077325501878557E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.03066300308999748</v>
+        <v>3.0663003089997479E-2</v>
       </c>
       <c r="C54">
-        <v>0.07258097264276279</v>
+        <v>7.2580972642762795E-2</v>
       </c>
       <c r="D54">
-        <v>0.07633345118435675</v>
+        <v>7.6333451184356749E-2</v>
       </c>
       <c r="E54">
-        <v>0.003102371531889901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>3.1023715318899011E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.08034349848434363</v>
+        <v>8.0343498484343634E-2</v>
       </c>
       <c r="C55">
-        <v>0.001189877403024868</v>
+        <v>1.189877403024868E-3</v>
       </c>
       <c r="D55">
-        <v>0.07946479906976145</v>
+        <v>7.9464799069761449E-2</v>
       </c>
       <c r="E55">
-        <v>0.0009875009269843019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>9.8750092698430192E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.08226238941400288</v>
+        <v>8.2262389414002879E-2</v>
       </c>
       <c r="C56">
-        <v>0.04278187361935291</v>
+        <v>4.2781873619352907E-2</v>
       </c>
       <c r="D56">
-        <v>0.08677302098988582</v>
+        <v>8.6773020989885818E-2</v>
       </c>
       <c r="E56">
-        <v>0.08911660794823682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>8.9116607948236823E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0724795182081821</v>
+        <v>7.2479518208182103E-2</v>
       </c>
       <c r="C57">
         <v>0.1092458368931173</v>
@@ -3091,27 +3116,27 @@
         <v>0.111854485741071</v>
       </c>
       <c r="E57">
-        <v>0.03260783283111426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>3.2607832831114257E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.05937012953498977</v>
+        <v>5.9370129534989768E-2</v>
       </c>
       <c r="C58">
-        <v>0.04894762498669321</v>
+        <v>4.8947624986693208E-2</v>
       </c>
       <c r="D58">
-        <v>0.07782327927927035</v>
+        <v>7.7823279279270352E-2</v>
       </c>
       <c r="E58">
-        <v>0.01528585458727623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1.5285854587276229E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3119,67 +3144,67 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.001687624718344152</v>
+        <v>1.6876247183441519E-3</v>
       </c>
       <c r="D59">
-        <v>0.002154052330415768</v>
+        <v>2.1540523304157681E-3</v>
       </c>
       <c r="E59">
-        <v>0.09435690120583118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>9.4356901205831178E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.07037893539390505</v>
+        <v>7.0378935393905051E-2</v>
       </c>
       <c r="C60">
-        <v>0.08045742617241915</v>
+        <v>8.0457426172419147E-2</v>
       </c>
       <c r="D60">
-        <v>0.1288347497317308</v>
+        <v>0.12883474973173081</v>
       </c>
       <c r="E60">
-        <v>0.05215707989327352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>5.215707989327352E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.05767451419530167</v>
+        <v>5.7674514195301667E-2</v>
       </c>
       <c r="C61">
-        <v>0.04070756792812567</v>
+        <v>4.0707567928125667E-2</v>
       </c>
       <c r="D61">
-        <v>0.07576525282901914</v>
+        <v>7.5765252829019136E-2</v>
       </c>
       <c r="E61">
-        <v>0.01635201103757798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1.6352011037577979E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09886258892162769</v>
+        <v>9.8862588921627692E-2</v>
       </c>
       <c r="C62">
-        <v>0.07477104541348183</v>
+        <v>7.4771045413481826E-2</v>
       </c>
       <c r="D62">
-        <v>0.07266610103378679</v>
+        <v>7.266610103378679E-2</v>
       </c>
       <c r="E62">
-        <v>0.003963359352181813</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>3.9633593521818129E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3187,33 +3212,33 @@
         <v>0.1267773464118305</v>
       </c>
       <c r="C63">
-        <v>0.07787752168459172</v>
+        <v>7.7877521684591722E-2</v>
       </c>
       <c r="D63">
-        <v>0.07442521505279553</v>
+        <v>7.4425215052795535E-2</v>
       </c>
       <c r="E63">
-        <v>0.07574734831205385</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>7.5747348312053847E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.02962140402927305</v>
+        <v>2.962140402927305E-2</v>
       </c>
       <c r="C64">
-        <v>0.001151864253840869</v>
+        <v>1.151864253840869E-3</v>
       </c>
       <c r="D64">
-        <v>0.09755332905402558</v>
+        <v>9.7553329054025584E-2</v>
       </c>
       <c r="E64">
-        <v>0.137544385471781</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.13754438547178099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3221,288 +3246,288 @@
         <v>0.1002522673765585</v>
       </c>
       <c r="C65">
-        <v>0.06001136172304515</v>
+        <v>6.0011361723045151E-2</v>
       </c>
       <c r="D65">
-        <v>0.06223004444192726</v>
+        <v>6.2230044441927257E-2</v>
       </c>
       <c r="E65">
-        <v>0.04177757312827138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>4.1777573128271378E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0395834999032012</v>
+        <v>3.9583499903201202E-2</v>
       </c>
       <c r="C66">
         <v>0.1431663242899211</v>
       </c>
       <c r="D66">
-        <v>0.09132208849890877</v>
+        <v>9.1322088498908771E-2</v>
       </c>
       <c r="E66">
         <v>0.1573340186778579</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0393930724326641</v>
+        <v>3.93930724326641E-2</v>
       </c>
       <c r="C67">
         <v>0.1101792874306072</v>
       </c>
       <c r="D67">
-        <v>0.0750522715320745</v>
+        <v>7.5052271532074499E-2</v>
       </c>
       <c r="E67">
-        <v>0.005258354756328697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>5.2583547563286974E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.09649589821723437</v>
+        <v>9.6495898217234366E-2</v>
       </c>
       <c r="C68">
-        <v>0.1950798036792221</v>
+        <v>0.19507980367922209</v>
       </c>
       <c r="D68">
         <v>0.1104506109342458</v>
       </c>
       <c r="E68">
-        <v>0.001100600103479362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.100600103479362E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.08109586215457965</v>
+        <v>8.1095862154579645E-2</v>
       </c>
       <c r="C69">
-        <v>0.04593689619194404</v>
+        <v>4.5936896191944042E-2</v>
       </c>
       <c r="D69">
-        <v>0.1066928878196989</v>
+        <v>0.10669288781969891</v>
       </c>
       <c r="E69">
-        <v>0.05675745496992997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>5.6757454969929969E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.084435776909634</v>
+        <v>8.4435776909633997E-2</v>
       </c>
       <c r="C70">
-        <v>0.06292239414107054</v>
+        <v>6.2922394141070537E-2</v>
       </c>
       <c r="D70">
-        <v>0.07095282412661619</v>
+        <v>7.0952824126616187E-2</v>
       </c>
       <c r="E70">
-        <v>0.1074027256158211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.10740272561582111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.05948179161733314</v>
+        <v>5.9481791617333142E-2</v>
       </c>
       <c r="C71">
         <v>0.1317546794940859</v>
       </c>
       <c r="D71">
-        <v>0.07539522391511366</v>
+        <v>7.5395223915113663E-2</v>
       </c>
       <c r="E71">
-        <v>0.007343039026672302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>7.3430390266723024E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0706113218725466</v>
+        <v>7.0611321872546595E-2</v>
       </c>
       <c r="C72">
-        <v>0.05043547611341173</v>
+        <v>5.0435476113411731E-2</v>
       </c>
       <c r="D72">
-        <v>0.06096621086131448</v>
+        <v>6.0966210861314478E-2</v>
       </c>
       <c r="E72">
-        <v>0.05275282914180891</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>5.2752829141808913E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.07654069518548234</v>
+        <v>7.6540695185482344E-2</v>
       </c>
       <c r="C73">
-        <v>0.05861004078609504</v>
+        <v>5.8610040786095038E-2</v>
       </c>
       <c r="D73">
-        <v>0.06168039506865108</v>
+        <v>6.1680395068651077E-2</v>
       </c>
       <c r="E73">
-        <v>0.05516873209251284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>5.5168732092512843E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.09120118030393498</v>
+        <v>9.1201180303934981E-2</v>
       </c>
       <c r="C74">
-        <v>0.0002057145449009495</v>
+        <v>2.0571454490094949E-4</v>
       </c>
       <c r="D74">
-        <v>0.03862946722113136</v>
+        <v>3.8629467221131357E-2</v>
       </c>
       <c r="E74">
-        <v>4.824015081479584E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>4.8240150814795838E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.04038627218028368</v>
+        <v>4.0386272180283678E-2</v>
       </c>
       <c r="C75">
-        <v>0.06250833876441236</v>
+        <v>6.2508338764412363E-2</v>
       </c>
       <c r="D75">
-        <v>0.08963769214238115</v>
+        <v>8.9637692142381153E-2</v>
       </c>
       <c r="E75">
-        <v>0.01169646549666049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1.169646549666049E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0882461537640904</v>
+        <v>8.8246153764090396E-2</v>
       </c>
       <c r="C76">
-        <v>0.06800947758192516</v>
+        <v>6.800947758192516E-2</v>
       </c>
       <c r="D76">
-        <v>0.06311085650673798</v>
+        <v>6.3110856506737978E-2</v>
       </c>
       <c r="E76">
-        <v>0.03275160209055353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>3.2751602090553528E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.03663527511222364</v>
+        <v>3.6635275112223642E-2</v>
       </c>
       <c r="C77">
-        <v>0.02840907693517652</v>
+        <v>2.8409076935176521E-2</v>
       </c>
       <c r="D77">
-        <v>0.04526149208282493</v>
+        <v>4.5261492082824928E-2</v>
       </c>
       <c r="E77">
-        <v>0.03842283000019191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>3.8422830000191907E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.04223906691212398</v>
+        <v>4.2239066912123979E-2</v>
       </c>
       <c r="C78">
-        <v>0.042866624626741</v>
+        <v>4.2866624626740998E-2</v>
       </c>
       <c r="D78">
-        <v>0.07409315209607348</v>
+        <v>7.4093152096073478E-2</v>
       </c>
       <c r="E78">
-        <v>0.002987304180267698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>2.987304180267698E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.05872132727092372</v>
+        <v>5.8721327270923718E-2</v>
       </c>
       <c r="C79">
-        <v>0.05751406058499076</v>
+        <v>5.7514060584990763E-2</v>
       </c>
       <c r="D79">
-        <v>0.04336369019305919</v>
+        <v>4.336369019305919E-2</v>
       </c>
       <c r="E79">
-        <v>0.0007430695111535956</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>7.4306951115359564E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.06161363891549798</v>
+        <v>6.1613638915497981E-2</v>
       </c>
       <c r="C80">
-        <v>0.2095171614635128</v>
+        <v>0.20951716146351279</v>
       </c>
       <c r="D80">
-        <v>0.08074869560979403</v>
+        <v>8.074869560979403E-2</v>
       </c>
       <c r="E80">
-        <v>0.06710950126008637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>6.7109501260086371E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.08202742298226462</v>
+        <v>8.2027422982264619E-2</v>
       </c>
       <c r="C81">
-        <v>0.08110219402862871</v>
+        <v>8.1102194028628713E-2</v>
       </c>
       <c r="D81">
-        <v>0.04968129469135518</v>
+        <v>4.9681294691355182E-2</v>
       </c>
       <c r="E81">
-        <v>0.3114676897347985</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.31146768973479849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3510,333 +3535,333 @@
         <v>0.1277838596611918</v>
       </c>
       <c r="C82">
-        <v>0.04145962317931601</v>
+        <v>4.1459623179316007E-2</v>
       </c>
       <c r="D82">
-        <v>0.06737825587429147</v>
+        <v>6.7378255874291471E-2</v>
       </c>
       <c r="E82">
-        <v>0.0369659086009522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>3.6965908600952203E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1018905552170322</v>
+        <v>0.10189055521703221</v>
       </c>
       <c r="C83">
-        <v>0.001783861534058018</v>
+        <v>1.7838615340580179E-3</v>
       </c>
       <c r="D83">
-        <v>0.0605880522864346</v>
+        <v>6.0588052286434602E-2</v>
       </c>
       <c r="E83">
-        <v>0.0994038309923815</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>9.9403830992381495E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.06522753335822773</v>
+        <v>6.5227533358227729E-2</v>
       </c>
       <c r="C84">
-        <v>0.01156565800539342</v>
+        <v>1.156565800539342E-2</v>
       </c>
       <c r="D84">
-        <v>0.08122993421488012</v>
+        <v>8.1229934214880117E-2</v>
       </c>
       <c r="E84">
-        <v>0.1699496123722065</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.16994961237220649</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.06714170473157632</v>
+        <v>6.7141704731576324E-2</v>
       </c>
       <c r="C85">
-        <v>0.04982105027789081</v>
+        <v>4.9821050277890813E-2</v>
       </c>
       <c r="D85">
-        <v>0.1128750083985273</v>
+        <v>0.11287500839852729</v>
       </c>
       <c r="E85">
-        <v>0.0024976205661488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>2.4976205661488E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.09377605105624065</v>
+        <v>9.377605105624065E-2</v>
       </c>
       <c r="C86">
-        <v>0.01342217355371846</v>
+        <v>1.3422173553718461E-2</v>
       </c>
       <c r="D86">
-        <v>0.06004357009004657</v>
+        <v>6.0043570090046572E-2</v>
       </c>
       <c r="E86">
         <v>0.1159870019383528</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.06537877643186873</v>
+        <v>6.5378776431868735E-2</v>
       </c>
       <c r="C87">
-        <v>0.001974219076046737</v>
+        <v>1.9742190760467372E-3</v>
       </c>
       <c r="D87">
-        <v>0.04163049699008137</v>
+        <v>4.1630496990081367E-2</v>
       </c>
       <c r="E87">
-        <v>0.005428143517313699</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>5.4281435173136987E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.06750320719449299</v>
+        <v>6.7503207194492987E-2</v>
       </c>
       <c r="C88">
-        <v>0.05313256730355996</v>
+        <v>5.313256730355996E-2</v>
       </c>
       <c r="D88">
-        <v>0.05733187765745695</v>
+        <v>5.7331877657456953E-2</v>
       </c>
       <c r="E88">
-        <v>0.01473765849539173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>1.473765849539173E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.09967555186578059</v>
+        <v>9.9675551865780587E-2</v>
       </c>
       <c r="C89">
-        <v>0.09888563520168289</v>
+        <v>9.8885635201682892E-2</v>
       </c>
       <c r="D89">
-        <v>0.001897759955325817</v>
+        <v>1.8977599553258171E-3</v>
       </c>
       <c r="E89">
-        <v>0.08513257830171445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>8.5132578301714446E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.08796330480633574</v>
+        <v>8.796330480633574E-2</v>
       </c>
       <c r="C90">
-        <v>0.0004478150330740373</v>
+        <v>4.4781503307403728E-4</v>
       </c>
       <c r="D90">
-        <v>0.09893484195642999</v>
+        <v>9.8934841956429986E-2</v>
       </c>
       <c r="E90">
-        <v>0.1197791402763275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.11977914027632749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.06691922907515657</v>
+        <v>6.6919229075156572E-2</v>
       </c>
       <c r="C91">
-        <v>0.03996074544587487</v>
+        <v>3.9960745445874871E-2</v>
       </c>
       <c r="D91">
-        <v>0.04063489271578868</v>
+        <v>4.0634892715788677E-2</v>
       </c>
       <c r="E91">
-        <v>0.05636245541281169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>5.6362455412811693E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.06044642642749065</v>
+        <v>6.0446426427490652E-2</v>
       </c>
       <c r="C92">
-        <v>0.009389278958797665</v>
+        <v>9.3892789587976654E-3</v>
       </c>
       <c r="D92">
-        <v>0.05560168494471518</v>
+        <v>5.560168494471518E-2</v>
       </c>
       <c r="E92">
-        <v>0.07738281148115997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>7.7382811481159969E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.09577405379757353</v>
+        <v>9.5774053797573533E-2</v>
       </c>
       <c r="C93">
-        <v>0.06903676342318396</v>
+        <v>6.9036763423183961E-2</v>
       </c>
       <c r="D93">
-        <v>0.03448962632462038</v>
+        <v>3.4489626324620382E-2</v>
       </c>
       <c r="E93">
-        <v>0.07310896137867209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>7.3108961378672094E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0668781018097393</v>
+        <v>6.6878101809739299E-2</v>
       </c>
       <c r="C94">
-        <v>0.2284379488210836</v>
+        <v>0.22843794882108359</v>
       </c>
       <c r="D94">
-        <v>0.07008671942628153</v>
+        <v>7.008671942628153E-2</v>
       </c>
       <c r="E94">
         <v>0.1306961362936172</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.08930360728965359</v>
+        <v>8.9303607289653586E-2</v>
       </c>
       <c r="C95">
-        <v>0.1839443987716786</v>
+        <v>0.18394439877167859</v>
       </c>
       <c r="D95">
-        <v>0.06906074662782058</v>
+        <v>6.9060746627820579E-2</v>
       </c>
       <c r="E95">
-        <v>0.002384370588138166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>2.384370588138166E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01887184499645755</v>
+        <v>1.8871844996457551E-2</v>
       </c>
       <c r="C96">
-        <v>0.042293645924147</v>
+        <v>4.2293645924147E-2</v>
       </c>
       <c r="D96">
-        <v>0.08041031787266983</v>
+        <v>8.0410317872669834E-2</v>
       </c>
       <c r="E96">
         <v>0.1004083448873396</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0882831947938314</v>
+        <v>8.8283194793831399E-2</v>
       </c>
       <c r="C97">
-        <v>0.04341600180547167</v>
+        <v>4.3416001805471671E-2</v>
       </c>
       <c r="D97">
-        <v>0.08063259948061186</v>
+        <v>8.0632599480611855E-2</v>
       </c>
       <c r="E97">
-        <v>0.01736336895176938</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>1.7363368951769379E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.07823395510800313</v>
+        <v>7.8233955108003128E-2</v>
       </c>
       <c r="C98">
         <v>0.1926215951960327</v>
       </c>
       <c r="D98">
-        <v>0.07383777594277974</v>
+        <v>7.3837775942779738E-2</v>
       </c>
       <c r="E98">
-        <v>0.09307387804786005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>9.3073878047860048E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.06137144065420164</v>
+        <v>6.1371440654201637E-2</v>
       </c>
       <c r="C99">
-        <v>0.04031058093772315</v>
+        <v>4.0310580937723148E-2</v>
       </c>
       <c r="D99">
-        <v>0.0698821290146161</v>
+        <v>6.9882129014616101E-2</v>
       </c>
       <c r="E99">
-        <v>0.1980370450447494</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.19803704504474939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.08040280037987202</v>
+        <v>8.0402800379872019E-2</v>
       </c>
       <c r="C100">
-        <v>0.04025284505920539</v>
+        <v>4.0252845059205393E-2</v>
       </c>
       <c r="D100">
-        <v>0.08037234314112074</v>
+        <v>8.0372343141120739E-2</v>
       </c>
       <c r="E100">
-        <v>0.01482100019903168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>1.4821000199031681E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.118229584056907</v>
+        <v>0.11822958405690701</v>
       </c>
       <c r="C101">
-        <v>0.172611042785603</v>
+        <v>0.17261104278560299</v>
       </c>
       <c r="D101">
-        <v>0.04596717710223563</v>
+        <v>4.5967177102235628E-2</v>
       </c>
       <c r="E101">
         <v>0.1047909655134516</v>
@@ -3848,14 +3873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3880,16 +3905,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.651748988632356</v>
+        <v>0.65174898863235597</v>
       </c>
       <c r="D2">
-        <v>0.003888872776574015</v>
+        <v>3.888872776574015E-3</v>
       </c>
       <c r="E2">
-        <v>0.4790546505176054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.47905465051760537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3897,101 +3922,101 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007113434012467938</v>
+        <v>7.1134340124679382E-3</v>
       </c>
       <c r="D3">
-        <v>0.006625090178029369</v>
+        <v>6.6250901780293692E-3</v>
       </c>
       <c r="E3">
-        <v>0.001805946306520321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1.805946306520321E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01134007828054351</v>
+        <v>1.134007828054351E-2</v>
       </c>
       <c r="C4">
-        <v>0.0003755435210628595</v>
+        <v>3.7554352106285952E-4</v>
       </c>
       <c r="D4">
-        <v>0.02332849234182177</v>
+        <v>2.3328492341821772E-2</v>
       </c>
       <c r="E4">
-        <v>0.004690633156814473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>4.6906331568144733E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01972629238283785</v>
+        <v>1.9726292382837851E-2</v>
       </c>
       <c r="C5">
-        <v>0.0004159603563422074</v>
+        <v>4.1596035634220742E-4</v>
       </c>
       <c r="D5">
-        <v>0.04190266147295518</v>
+        <v>4.1902661472955183E-2</v>
       </c>
       <c r="E5">
-        <v>0.002482207809591492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.4822078095914921E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02102445448502022</v>
+        <v>2.102445448502022E-2</v>
       </c>
       <c r="C6">
-        <v>0.004025460022944172</v>
+        <v>4.0254600229441724E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07531515722271795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7.5315157222717949E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05753685124169916</v>
+        <v>5.7536851241699161E-2</v>
       </c>
       <c r="C7">
-        <v>0.03678613395607067</v>
+        <v>3.6786133956070673E-2</v>
       </c>
       <c r="D7">
-        <v>0.01669021158293793</v>
+        <v>1.6690211582937931E-2</v>
       </c>
       <c r="E7">
-        <v>7.298640488743915E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>7.298640488743915E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01280064776875101</v>
+        <v>1.2800647768751011E-2</v>
       </c>
       <c r="C8">
-        <v>0.006376312566205127</v>
+        <v>6.3763125662051274E-3</v>
       </c>
       <c r="D8">
-        <v>0.03705476143567954</v>
+        <v>3.705476143567954E-2</v>
       </c>
       <c r="E8">
-        <v>0.02721014408622089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.721014408622089E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3999,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0009861120986521341</v>
+        <v>9.8611209865213413E-4</v>
       </c>
       <c r="D9">
-        <v>0.05004722403764461</v>
+        <v>5.0047224037644611E-2</v>
       </c>
       <c r="E9">
-        <v>0.0337745803528714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3.3774580352871397E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4016,203 +4041,203 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0004692335131047316</v>
+        <v>4.6923351310473161E-4</v>
       </c>
       <c r="D10">
-        <v>0.02474073367969742</v>
+        <v>2.4740733679697421E-2</v>
       </c>
       <c r="E10">
-        <v>0.04617735527403957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4.6177355274039572E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.05114656009291374</v>
+        <v>5.114656009291374E-2</v>
       </c>
       <c r="C11">
-        <v>0.04211317105116755</v>
+        <v>4.2113171051167547E-2</v>
       </c>
       <c r="D11">
-        <v>0.03341206704532285</v>
+        <v>3.3412067045322853E-2</v>
       </c>
       <c r="E11">
-        <v>0.0925021551002327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9.25021551002327E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.008367803951485175</v>
+        <v>8.3678039514851754E-3</v>
       </c>
       <c r="C12">
-        <v>0.04012219141459037</v>
+        <v>4.012219141459037E-2</v>
       </c>
       <c r="D12">
-        <v>0.003870593549752277</v>
+        <v>3.870593549752277E-3</v>
       </c>
       <c r="E12">
-        <v>0.005889854664507071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.8898546645070708E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03751249767643317</v>
+        <v>3.7512497676433172E-2</v>
       </c>
       <c r="C13">
-        <v>0.05543435885677599</v>
+        <v>5.5434358856775993E-2</v>
       </c>
       <c r="D13">
-        <v>0.01983654412625535</v>
+        <v>1.9836544126255351E-2</v>
       </c>
       <c r="E13">
-        <v>0.004315402462889178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>4.3154024628891778E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01459618725176037</v>
+        <v>1.459618725176037E-2</v>
       </c>
       <c r="C14">
-        <v>0.01329986840633669</v>
+        <v>1.3299868406336689E-2</v>
       </c>
       <c r="D14">
-        <v>0.01248890618816523</v>
+        <v>1.2488906188165229E-2</v>
       </c>
       <c r="E14">
-        <v>0.004221568601027927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>4.2215686010279273E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02043303906112204</v>
+        <v>2.0433039061122042E-2</v>
       </c>
       <c r="C15">
-        <v>0.06298005780784101</v>
+        <v>6.2980057807841008E-2</v>
       </c>
       <c r="D15">
-        <v>0.02528542708770098</v>
+        <v>2.5285427087700981E-2</v>
       </c>
       <c r="E15">
-        <v>0.002894666470654512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2.8946664706545121E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.006764630417838813</v>
+        <v>6.7646304178388128E-3</v>
       </c>
       <c r="C16">
-        <v>0.008727315743989822</v>
+        <v>8.7273157439898223E-3</v>
       </c>
       <c r="D16">
-        <v>0.03577858757988928</v>
+        <v>3.5778587579889283E-2</v>
       </c>
       <c r="E16">
-        <v>0.004064399332834373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>4.0643993328343727E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01809064767152058</v>
+        <v>1.809064767152058E-2</v>
       </c>
       <c r="C17">
-        <v>0.006397360525866581</v>
+        <v>6.3973605258665807E-3</v>
       </c>
       <c r="D17">
-        <v>0.0691559972491278</v>
+        <v>6.9155997249127799E-2</v>
       </c>
       <c r="E17">
-        <v>0.1535389752815869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.15353897528158689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.02155948351352266</v>
+        <v>2.1559483513522659E-2</v>
       </c>
       <c r="C18">
-        <v>0.05288861949765812</v>
+        <v>5.2888619497658121E-2</v>
       </c>
       <c r="D18">
-        <v>0.03672078400686263</v>
+        <v>3.6720784006862628E-2</v>
       </c>
       <c r="E18">
-        <v>0.01318147322918716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1.318147322918716E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04429684389129096</v>
+        <v>4.429684389129096E-2</v>
       </c>
       <c r="C19">
-        <v>5.500641367053868E-05</v>
+        <v>5.5006413670538682E-5</v>
       </c>
       <c r="D19">
-        <v>0.03678668105865657</v>
+        <v>3.6786681058656567E-2</v>
       </c>
       <c r="E19">
-        <v>0.003091439475303225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>3.0914394753032248E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.004710008952671707</v>
+        <v>4.710008952671707E-3</v>
       </c>
       <c r="C20">
-        <v>0.03804281137141348</v>
+        <v>3.8042811371413479E-2</v>
       </c>
       <c r="D20">
-        <v>0.03280030454400396</v>
+        <v>3.2800304544003962E-2</v>
       </c>
       <c r="E20">
-        <v>0.04919425237304424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4.9194252373044242E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0008899384334184468</v>
+        <v>8.8993843341844681E-4</v>
       </c>
       <c r="C21">
-        <v>0.002095382933834562</v>
+        <v>2.095382933834562E-3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.005346756090940453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>5.3467560909404533E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4220,33 +4245,33 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.009940108504058494</v>
+        <v>9.9401085040584942E-3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01093627797712049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1.093627797712049E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01096894073086596</v>
+        <v>1.096894073086596E-2</v>
       </c>
       <c r="C23">
-        <v>0.001828736731469175</v>
+        <v>1.828736731469175E-3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0008978923248651293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>8.9789232486512933E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4254,50 +4279,50 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0125818208816323</v>
+        <v>1.2581820881632301E-2</v>
       </c>
       <c r="D24">
-        <v>0.01546817278136059</v>
+        <v>1.546817278136059E-2</v>
       </c>
       <c r="E24">
-        <v>0.1160877094104761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.11608770941047609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.03004181497862213</v>
+        <v>3.0041814978622131E-2</v>
       </c>
       <c r="C25">
-        <v>0.1463901351903849</v>
+        <v>0.14639013519038491</v>
       </c>
       <c r="D25">
-        <v>0.001513758889929884</v>
+        <v>1.5137588899298839E-3</v>
       </c>
       <c r="E25">
-        <v>0.0316414583919446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>3.1641458391944599E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.02935004267040831</v>
+        <v>2.9350042670408309E-2</v>
       </c>
       <c r="C26">
-        <v>0.04807289463325363</v>
+        <v>4.8072894633253628E-2</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0005418777453571554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>5.4187774535715541E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4305,50 +4330,50 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.0003922496907331905</v>
+        <v>3.9224969073319048E-4</v>
       </c>
       <c r="D27">
-        <v>0.01297644442695978</v>
+        <v>1.297644442695978E-2</v>
       </c>
       <c r="E27">
-        <v>0.01021245071444927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1.021245071444927E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.02473539085927312</v>
+        <v>2.4735390859273121E-2</v>
       </c>
       <c r="C28">
-        <v>0.006984160978281291</v>
+        <v>6.9841609782812907E-3</v>
       </c>
       <c r="D28">
-        <v>0.02000822175507166</v>
+        <v>2.0008221755071661E-2</v>
       </c>
       <c r="E28">
-        <v>0.01120784199775628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>1.120784199775628E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.02778008212447869</v>
+        <v>2.7780082124478689E-2</v>
       </c>
       <c r="C29">
-        <v>0.004002502824841268</v>
+        <v>4.002502824841268E-3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.01388897859927627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>1.3888978599276271E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4356,84 +4381,84 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.003596880272769179</v>
+        <v>3.596880272769179E-3</v>
       </c>
       <c r="D30">
-        <v>0.01492570027068818</v>
+        <v>1.492570027068818E-2</v>
       </c>
       <c r="E30">
-        <v>0.01209131416392092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1.2091314163920921E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.04124959448809817</v>
+        <v>4.1249594488098167E-2</v>
       </c>
       <c r="C31">
-        <v>0.03513499003092448</v>
+        <v>3.5134990030924483E-2</v>
       </c>
       <c r="D31">
-        <v>0.02027345000404002</v>
+        <v>2.027345000404002E-2</v>
       </c>
       <c r="E31">
-        <v>0.06554810816968944</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>6.5548108169689437E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.009787866301195658</v>
+        <v>9.7878663011956579E-3</v>
       </c>
       <c r="C32">
-        <v>0.007290690599014755</v>
+        <v>7.2906905990147552E-3</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.05562363926757725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>5.5623639267577248E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007052427070781686</v>
+        <v>7.0524270707816861E-3</v>
       </c>
       <c r="C33">
-        <v>0.01287237643439681</v>
+        <v>1.287237643439681E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.0001401162565583329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1.401162565583329E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.05033051784272713</v>
+        <v>5.0330517842727129E-2</v>
       </c>
       <c r="C34">
-        <v>0.06169667809456444</v>
+        <v>6.1696678094564437E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.00517003111016639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>5.1700311101663902E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4441,50 +4466,50 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.03248831363809384</v>
+        <v>3.2488313638093839E-2</v>
       </c>
       <c r="D35">
-        <v>0.0006839802648532789</v>
+        <v>6.839802648532789E-4</v>
       </c>
       <c r="E35">
-        <v>0.002845159436174992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>2.8451594361749918E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0097344579563301</v>
+        <v>9.7344579563301004E-3</v>
       </c>
       <c r="C36">
-        <v>0.002672219183183967</v>
+        <v>2.6722191831839671E-3</v>
       </c>
       <c r="D36">
-        <v>0.02557821355122902</v>
+        <v>2.557821355122902E-2</v>
       </c>
       <c r="E36">
-        <v>0.097136044551793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>9.7136044551793005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.02693627847057178</v>
+        <v>2.693627847057178E-2</v>
       </c>
       <c r="C37">
-        <v>0.01196690367051028</v>
+        <v>1.196690367051028E-2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.001407784349376836</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>1.4077843493768361E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4492,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.0009220446933068125</v>
+        <v>9.2204469330681247E-4</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2.19043027593337E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>2.1904302759333699E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4509,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.002680767008031019</v>
+        <v>2.6807670080310191E-3</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.01166826483492463</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>1.1668264834924631E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4526,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.07794060560396288</v>
+        <v>7.7940605603962876E-2</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.001618296184103957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>1.6182961841039571E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4543,101 +4568,101 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.00993700971178019</v>
+        <v>9.9370097117801905E-3</v>
       </c>
       <c r="D41">
-        <v>0.02565639593339664</v>
+        <v>2.565639593339664E-2</v>
       </c>
       <c r="E41">
-        <v>0.0008283044690124298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>8.2830446901242978E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.04555531496030851</v>
+        <v>4.5555314960308513E-2</v>
       </c>
       <c r="C42">
-        <v>0.02885128459667537</v>
+        <v>2.885128459667537E-2</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.002791991996432393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.7919919964323929E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0098100820813809</v>
+        <v>9.8100820813808998E-3</v>
       </c>
       <c r="C43">
-        <v>0.01914027441500914</v>
+        <v>1.914027441500914E-2</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.0121191633803991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1.21191633803991E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0008386800749509149</v>
+        <v>8.386800749509149E-4</v>
       </c>
       <c r="C44">
-        <v>0.02981798619364859</v>
+        <v>2.9817986193648591E-2</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.006911535527544902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>6.9115355275449018E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.03344595258491023</v>
+        <v>3.3445952584910232E-2</v>
       </c>
       <c r="C45">
-        <v>0.002905372847339965</v>
+        <v>2.9053728473399649E-3</v>
       </c>
       <c r="D45">
-        <v>0.02418392461167884</v>
+        <v>2.4183924611678839E-2</v>
       </c>
       <c r="E45">
-        <v>0.01987422668660209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>1.9874226686602089E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.02706524042530334</v>
+        <v>2.7065240425303339E-2</v>
       </c>
       <c r="C46">
-        <v>0.008321278918144766</v>
+        <v>8.3212789181447665E-3</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.06078200319013263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>6.0782003190132633E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4645,135 +4670,135 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.01963773233696545</v>
+        <v>1.963773233696545E-2</v>
       </c>
       <c r="D47">
-        <v>0.01260696397692973</v>
+        <v>1.260696397692973E-2</v>
       </c>
       <c r="E47">
-        <v>0.009867574822934103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>9.8675748229341033E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.02013161901119132</v>
+        <v>2.0131619011191319E-2</v>
       </c>
       <c r="C48">
-        <v>0.1097374753770606</v>
+        <v>0.10973747537706061</v>
       </c>
       <c r="D48">
-        <v>0.03058238093895893</v>
+        <v>3.0582380938958931E-2</v>
       </c>
       <c r="E48">
-        <v>0.1511700128557346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.15117001285573459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01679178204365739</v>
+        <v>1.6791782043657388E-2</v>
       </c>
       <c r="C49">
-        <v>0.0008444421631769346</v>
+        <v>8.4444216317693457E-4</v>
       </c>
       <c r="D49">
-        <v>0.01161198904240379</v>
+        <v>1.161198904240379E-2</v>
       </c>
       <c r="E49">
-        <v>0.00236312800615098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>2.3631280061509798E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.006527830691913872</v>
+        <v>6.5278306919138718E-3</v>
       </c>
       <c r="C50">
-        <v>0.007957580209811566</v>
+        <v>7.9575802098115662E-3</v>
       </c>
       <c r="D50">
-        <v>0.01752799282272943</v>
+        <v>1.7527992822729429E-2</v>
       </c>
       <c r="E50">
-        <v>0.01401600447112382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1.4016004471123821E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.009026815979843894</v>
+        <v>9.0268159798438941E-3</v>
       </c>
       <c r="C51">
-        <v>0.03656254108638738</v>
+        <v>3.656254108638738E-2</v>
       </c>
       <c r="D51">
-        <v>0.004926203210889435</v>
+        <v>4.9262032108894349E-3</v>
       </c>
       <c r="E51">
-        <v>0.004579012665006328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>4.5790126650063281E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01085206523710602</v>
+        <v>1.085206523710602E-2</v>
       </c>
       <c r="C52">
-        <v>0.07726041067285908</v>
+        <v>7.7260410672859076E-2</v>
       </c>
       <c r="D52">
-        <v>0.01174873113894481</v>
+        <v>1.1748731138944811E-2</v>
       </c>
       <c r="E52">
-        <v>0.007055179560273661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>7.0551795602736608E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01699756781698647</v>
+        <v>1.699756781698647E-2</v>
       </c>
       <c r="C53">
-        <v>0.02315911213460518</v>
+        <v>2.315911213460518E-2</v>
       </c>
       <c r="D53">
-        <v>0.006719460405184341</v>
+        <v>6.719460405184341E-3</v>
       </c>
       <c r="E53">
-        <v>0.01017402605430164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>1.0174026054301641E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.006647366622859696</v>
+        <v>6.6473666228596962E-3</v>
       </c>
       <c r="C54">
-        <v>0.03014937876861954</v>
+        <v>3.0149378768619541E-2</v>
       </c>
       <c r="D54">
-        <v>0.05333641050919047</v>
+        <v>5.3336410509190468E-2</v>
       </c>
       <c r="E54">
-        <v>0.02478866560561101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>2.4788665605611011E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4781,33 +4806,33 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.003246603915069551</v>
+        <v>3.2466039150695512E-3</v>
       </c>
       <c r="D55">
-        <v>0.003497655488371887</v>
+        <v>3.4976554883718869E-3</v>
       </c>
       <c r="E55">
-        <v>0.01205147011673066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1.205147011673066E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.009109649706904976</v>
+        <v>9.1096497069049764E-3</v>
       </c>
       <c r="C56">
-        <v>0.02207695598392962</v>
+        <v>2.2076955983929621E-2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.05948266096833726</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>5.9482660968337257E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4815,67 +4840,67 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.02614341614447671</v>
+        <v>2.6143416144476711E-2</v>
       </c>
       <c r="D57">
-        <v>0.03638310012004764</v>
+        <v>3.638310012004764E-2</v>
       </c>
       <c r="E57">
-        <v>0.002392273850469762</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>2.3922738504697622E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.006693246089852112</v>
+        <v>6.6932460898521118E-3</v>
       </c>
       <c r="C58">
-        <v>0.05661558227791265</v>
+        <v>5.6615582277912649E-2</v>
       </c>
       <c r="D58">
-        <v>0.01447900247696099</v>
+        <v>1.4479002476960989E-2</v>
       </c>
       <c r="E58">
-        <v>0.05391225461044064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>5.3912254610440642E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005650259784044431</v>
+        <v>5.6502597840444313E-3</v>
       </c>
       <c r="C59">
-        <v>0.0008842845204101609</v>
+        <v>8.8428452041016087E-4</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.04079669623322137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>4.0796696233221373E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.009546003613784659</v>
+        <v>9.5460036137846593E-3</v>
       </c>
       <c r="C60">
-        <v>0.03362938924369228</v>
+        <v>3.3629389243692277E-2</v>
       </c>
       <c r="D60">
-        <v>0.01128397791776248</v>
+        <v>1.1283977917762479E-2</v>
       </c>
       <c r="E60">
-        <v>0.005573182016731765</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>5.5731820167317647E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4883,16 +4908,16 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.02190521792152357</v>
+        <v>2.190521792152357E-2</v>
       </c>
       <c r="D61">
-        <v>0.02616445396144629</v>
+        <v>2.6164453961446291E-2</v>
       </c>
       <c r="E61">
-        <v>0.07470274486569159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>7.4702744865691589E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4900,16 +4925,16 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.005486137099478339</v>
+        <v>5.4861370994783391E-3</v>
       </c>
       <c r="D62">
-        <v>0.01672163304134733</v>
+        <v>1.6721633041347331E-2</v>
       </c>
       <c r="E62">
-        <v>0.06703856221931134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>6.7038562219311343E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4917,21 +4942,21 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2.904639144095896E-05</v>
+        <v>2.9046391440958961E-5</v>
       </c>
       <c r="D63">
-        <v>0.0124522663902189</v>
+        <v>1.2452266390218901E-2</v>
       </c>
       <c r="E63">
-        <v>0.0002188232341147833</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>2.1882323411478329E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.006930024474515628</v>
+        <v>6.9300244745156281E-3</v>
       </c>
       <c r="C64">
         <v>0.136403311270438</v>
@@ -4940,44 +4965,44 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.02097323094307637</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>2.0973230943076369E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.02018481876782308</v>
+        <v>2.018481876782308E-2</v>
       </c>
       <c r="C65">
-        <v>0.07786730613364712</v>
+        <v>7.7867306133647118E-2</v>
       </c>
       <c r="D65">
-        <v>0.002293262449807765</v>
+        <v>2.2932624498077652E-3</v>
       </c>
       <c r="E65">
-        <v>0.1106229727653889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.11062297276538891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.912613318910132E-05</v>
+        <v>6.9126133189101324E-5</v>
       </c>
       <c r="C66">
-        <v>0.04785042117434106</v>
+        <v>4.785042117434106E-2</v>
       </c>
       <c r="D66">
-        <v>0.01929350067283964</v>
+        <v>1.929350067283964E-2</v>
       </c>
       <c r="E66">
-        <v>0.04196605361945227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>4.196605361945227E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4985,75 +5010,75 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.02321845115173194</v>
+        <v>2.3218451151731941E-2</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.0542632409839257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>5.4263240983925702E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.03223447958434456</v>
+        <v>3.2234479584344562E-2</v>
       </c>
       <c r="C68">
-        <v>0.004091753569114068</v>
+        <v>4.0917535691140684E-3</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.03585787634942481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>3.5857876349424812E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0007613377394912746</v>
+        <v>7.6133773949127459E-4</v>
       </c>
       <c r="C69">
-        <v>0.003782757454301133</v>
+        <v>3.782757454301133E-3</v>
       </c>
       <c r="D69">
-        <v>0.02577773323230126</v>
+        <v>2.5777733232301259E-2</v>
       </c>
       <c r="E69">
         <v>0.1165941293118611</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.02064007709059212</v>
+        <v>2.064007709059212E-2</v>
       </c>
       <c r="C70">
-        <v>0.0362981876738307</v>
+        <v>3.6298187673830702E-2</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>7.456492823208865E-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>7.4564928232088652E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.02954821363594751</v>
+        <v>2.954821363594751E-2</v>
       </c>
       <c r="C71">
-        <v>0.01248525283780836</v>
+        <v>1.248525283780836E-2</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5062,24 +5087,24 @@
         <v>0.2033405002341902</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.02590459729552652</v>
+        <v>2.5904597295526521E-2</v>
       </c>
       <c r="C72">
-        <v>0.09095263153205102</v>
+        <v>9.095263153205102E-2</v>
       </c>
       <c r="D72">
-        <v>0.003986501697498923</v>
+        <v>3.9865016974989231E-3</v>
       </c>
       <c r="E72">
-        <v>0.002855430644015959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>2.855430644015959E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5087,16 +5112,16 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.01627584576422295</v>
+        <v>1.6275845764222949E-2</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.01411209669043578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1.4112096690435781E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5104,16 +5129,16 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.005612443612535505</v>
+        <v>5.6124436125355049E-3</v>
       </c>
       <c r="D74">
-        <v>0.006214155714478808</v>
+        <v>6.2141557144788076E-3</v>
       </c>
       <c r="E74">
-        <v>0.01941376030189272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>1.9413760301892721E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5121,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.1414060979436118</v>
+        <v>0.14140609794361181</v>
       </c>
       <c r="D75">
-        <v>0.005798467462550638</v>
+        <v>5.7984674625506383E-3</v>
       </c>
       <c r="E75">
-        <v>0.01193299049721939</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1.193299049721939E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5138,33 +5163,33 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.01281912552267524</v>
+        <v>1.2819125522675241E-2</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.002038565760235519</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>2.0385657602355191E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.002820146384442612</v>
+        <v>2.8201463844426118E-3</v>
       </c>
       <c r="C77">
-        <v>0.03288911599331475</v>
+        <v>3.2889115993314753E-2</v>
       </c>
       <c r="D77">
-        <v>0.02226206286670784</v>
+        <v>2.226206286670784E-2</v>
       </c>
       <c r="E77">
-        <v>0.01853310915098901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.8533109150989008E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5172,50 +5197,50 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0.03070715785267452</v>
+        <v>3.070715785267452E-2</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.0259171752770101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>2.59171752770101E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.04568180620687379</v>
+        <v>4.5681806206873787E-2</v>
       </c>
       <c r="C79">
-        <v>0.05443052411561441</v>
+        <v>5.4430524115614408E-2</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.007268057568678975</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>7.2680575686789751E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003607796630880511</v>
+        <v>3.6077966308805109E-3</v>
       </c>
       <c r="C80">
-        <v>0.005200098069859446</v>
+        <v>5.2000980698594457E-3</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.04469509074351714</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>4.4695090743517137E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5223,84 +5248,84 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>6.808306234753007E-05</v>
+        <v>6.8083062347530071E-5</v>
       </c>
       <c r="D81">
-        <v>0.01658665796179637</v>
+        <v>1.6586657961796369E-2</v>
       </c>
       <c r="E81">
-        <v>0.01823075495608731</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1.8230754956087308E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0235562587128042</v>
+        <v>2.3556258712804201E-2</v>
       </c>
       <c r="C82">
-        <v>0.06537472646111601</v>
+        <v>6.5374726461116014E-2</v>
       </c>
       <c r="D82">
-        <v>0.008168953634396514</v>
+        <v>8.1689536343965141E-3</v>
       </c>
       <c r="E82">
-        <v>0.05414866770584048</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>5.4148667705840481E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01674745500405961</v>
+        <v>1.6747455004059612E-2</v>
       </c>
       <c r="C83">
-        <v>0.0672766206313353</v>
+        <v>6.7276620631335299E-2</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.009591154838044942</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>9.5911548380449418E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02726192096856983</v>
+        <v>2.726192096856983E-2</v>
       </c>
       <c r="C84">
-        <v>0.00487820450010268</v>
+        <v>4.8782045001026803E-3</v>
       </c>
       <c r="D84">
-        <v>0.002698935099051392</v>
+        <v>2.6989350990513921E-3</v>
       </c>
       <c r="E84">
-        <v>0.1461608985169933</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.14616089851699329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.01574639920696486</v>
+        <v>1.574639920696486E-2</v>
       </c>
       <c r="C85">
-        <v>0.02102491644816739</v>
+        <v>2.102491644816739E-2</v>
       </c>
       <c r="D85">
-        <v>0.04395400865436438</v>
+        <v>4.3954008654364378E-2</v>
       </c>
       <c r="E85">
         <v>0.1314352534632757</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5308,33 +5333,33 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.006416767901311706</v>
+        <v>6.4167679013117061E-3</v>
       </c>
       <c r="D86">
-        <v>0.04198051709420114</v>
+        <v>4.1980517094201142E-2</v>
       </c>
       <c r="E86">
-        <v>0.03623554363725082</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>3.6235543637250817E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.05193472232996132</v>
+        <v>5.1934722329961318E-2</v>
       </c>
       <c r="C87">
-        <v>0.01600107797616505</v>
+        <v>1.6001077976165051E-2</v>
       </c>
       <c r="D87">
-        <v>0.02130476475915977</v>
+        <v>2.130476475915977E-2</v>
       </c>
       <c r="E87">
-        <v>0.1360505643301748</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.13605056433017479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5342,33 +5367,33 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.1020945465759295</v>
+        <v>0.10209454657592951</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.02936662809874448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>2.936662809874448E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01066007176621797</v>
+        <v>1.0660071766217969E-2</v>
       </c>
       <c r="C89">
-        <v>0.04778819916113732</v>
+        <v>4.7788199161137322E-2</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.1213314428870503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.12133144288705031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5376,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0.0442596154581994</v>
+        <v>4.4259615458199397E-2</v>
       </c>
       <c r="D90">
-        <v>0.007905414363319485</v>
+        <v>7.9054143633194851E-3</v>
       </c>
       <c r="E90">
-        <v>0.09435411603210678</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>9.4354116032106777E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5393,38 +5418,38 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.01893249620444542</v>
+        <v>1.8932496204445419E-2</v>
       </c>
       <c r="D91">
-        <v>0.0086204742566236</v>
+        <v>8.6204742566236003E-3</v>
       </c>
       <c r="E91">
-        <v>0.1308285141306779</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.13082851413067789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.01259762865869685</v>
+        <v>1.259762865869685E-2</v>
       </c>
       <c r="C92">
-        <v>0.02154896543753356</v>
+        <v>2.1548965437533561E-2</v>
       </c>
       <c r="D92">
-        <v>0.01539370886385583</v>
+        <v>1.539370886385583E-2</v>
       </c>
       <c r="E92">
-        <v>0.06498392159441804</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>6.4983921594418043E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.007036213989241924</v>
+        <v>7.036213989241924E-3</v>
       </c>
       <c r="C93">
         <v>0.1054771639194325</v>
@@ -5433,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.03983961895842594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>3.9839618958425943E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5444,50 +5469,50 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.07303258637798585</v>
+        <v>7.3032586377985848E-2</v>
       </c>
       <c r="D94">
-        <v>0.005889613721066222</v>
+        <v>5.8896137210662216E-3</v>
       </c>
       <c r="E94">
-        <v>0.08741721798928942</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>8.741721798928942E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0125373023568689</v>
+        <v>1.2537302356868899E-2</v>
       </c>
       <c r="C95">
         <v>0.1098389632119689</v>
       </c>
       <c r="D95">
-        <v>0.008163845212202592</v>
+        <v>8.1638452122025917E-3</v>
       </c>
       <c r="E95">
-        <v>0.09831642745018754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>9.8316427450187538E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.03265368396083534</v>
+        <v>3.2653683960835338E-2</v>
       </c>
       <c r="C96">
-        <v>0.06383178714639201</v>
+        <v>6.3831787146392011E-2</v>
       </c>
       <c r="D96">
-        <v>0.01349356659918399</v>
+        <v>1.3493566599183991E-2</v>
       </c>
       <c r="E96">
-        <v>0.0792808691100461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>7.9280869110046101E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5495,16 +5520,16 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.0388008762062395</v>
+        <v>3.8800876206239503E-2</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0.0107038573536939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>1.0703857353693899E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5512,61 +5537,61 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.03250266077094963</v>
+        <v>3.2502660770949633E-2</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.08102926895982712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>8.1029268959827122E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.002296968255524723</v>
+        <v>2.2969682555247228E-3</v>
       </c>
       <c r="C99">
-        <v>0.004335742854656609</v>
+        <v>4.3357428546566086E-3</v>
       </c>
       <c r="D99">
-        <v>0.0197212978426673</v>
+        <v>1.9721297842667299E-2</v>
       </c>
       <c r="E99">
-        <v>0.0346580789025188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>3.4658078902518798E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001456133604993637</v>
+        <v>1.4561336049936371E-3</v>
       </c>
       <c r="C100">
-        <v>0.01331430900692098</v>
+        <v>1.3314309006920979E-2</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.03304900502598886</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>3.3049005025988863E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.02611357975963169</v>
+        <v>2.6113579759631689E-2</v>
       </c>
       <c r="C101">
-        <v>0.04705655023398775</v>
+        <v>4.7056550233987748E-2</v>
       </c>
       <c r="D101">
-        <v>0.009823480650055894</v>
+        <v>9.8234806500558935E-3</v>
       </c>
       <c r="E101">
         <v>0.1347886499856171</v>
@@ -5578,14 +5603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,126 +5627,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03791690135563863</v>
+        <v>3.7916901355638633E-2</v>
       </c>
       <c r="C2">
-        <v>0.52820394723632</v>
+        <v>0.52820394723632003</v>
       </c>
       <c r="D2">
-        <v>0.07697080067269613</v>
+        <v>7.6970800672696127E-2</v>
       </c>
       <c r="E2">
-        <v>0.4256122050522322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.42561220505223218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0554387143379782</v>
+        <v>5.5438714337978201E-2</v>
       </c>
       <c r="C3">
-        <v>0.2657285382091056</v>
+        <v>0.26572853820910558</v>
       </c>
       <c r="D3">
-        <v>0.04218576845345301</v>
+        <v>4.218576845345301E-2</v>
       </c>
       <c r="E3">
-        <v>0.7009645222191145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.70096452221911454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04916181141633813</v>
+        <v>4.916181141633813E-2</v>
       </c>
       <c r="C4">
-        <v>0.0517419384878718</v>
+        <v>5.17419384878718E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0003619558829181114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.6195588291811141E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01596083111009472</v>
+        <v>1.596083111009472E-2</v>
       </c>
       <c r="C5">
-        <v>0.0001101181815631259</v>
+        <v>1.1011818156312589E-4</v>
       </c>
       <c r="D5">
-        <v>0.0389193492001918</v>
+        <v>3.89193492001918E-2</v>
       </c>
       <c r="E5">
-        <v>0.00331727830227765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.3172783022776499E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0004724744375275147</v>
+        <v>4.7247443752751472E-4</v>
       </c>
       <c r="C6">
-        <v>0.1641683727893188</v>
+        <v>0.16416837278931881</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05469782554728182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>5.4697825547281823E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01765041345757146</v>
+        <v>1.765041345757146E-2</v>
       </c>
       <c r="C7">
-        <v>0.01946789283228654</v>
+        <v>1.9467892832286539E-2</v>
       </c>
       <c r="D7">
-        <v>0.06924167307514728</v>
+        <v>6.9241673075147281E-2</v>
       </c>
       <c r="E7">
-        <v>0.2905159525492599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.29051595254925988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08314011621104522</v>
+        <v>8.3140116211045223E-2</v>
       </c>
       <c r="C8">
-        <v>0.1860615932757579</v>
+        <v>0.18606159327575791</v>
       </c>
       <c r="D8">
-        <v>0.01143725527072936</v>
+        <v>1.1437255270729359E-2</v>
       </c>
       <c r="E8">
-        <v>0.07296694907547627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7.2966949075476267E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5732,64 +5757,64 @@
         <v>0.1158503366740842</v>
       </c>
       <c r="D9">
-        <v>0.01937930591014814</v>
+        <v>1.937930591014814E-2</v>
       </c>
       <c r="E9">
-        <v>0.05060917286951214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>5.0609172869512137E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03527216305300573</v>
+        <v>3.5272163053005727E-2</v>
       </c>
       <c r="C10">
-        <v>0.08960458910949487</v>
+        <v>8.960458910949487E-2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08847301925064655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>8.8473019250646545E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01633001687788771</v>
+        <v>1.633001687788771E-2</v>
       </c>
       <c r="C11">
-        <v>0.01112659885554397</v>
+        <v>1.112659885554397E-2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02530458999765664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2.530458999765664E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05147302359597128</v>
+        <v>5.1473023595971279E-2</v>
       </c>
       <c r="C12">
-        <v>0.03331982023968185</v>
+        <v>3.3319820239681851E-2</v>
       </c>
       <c r="D12">
-        <v>0.02524039227820074</v>
+        <v>2.5240392278200741E-2</v>
       </c>
       <c r="E12">
-        <v>0.1584250366082323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.15842503660823229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5797,50 +5822,50 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05393121588614509</v>
+        <v>5.3931215886145092E-2</v>
       </c>
       <c r="D13">
-        <v>0.03423901491459413</v>
+        <v>3.4239014914594128E-2</v>
       </c>
       <c r="E13">
         <v>0.1169586383047673</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0420414880692348</v>
+        <v>4.20414880692348E-2</v>
       </c>
       <c r="C14">
-        <v>0.03939665759827166</v>
+        <v>3.9396657598271663E-2</v>
       </c>
       <c r="D14">
-        <v>0.0569085967947025</v>
+        <v>5.6908596794702497E-2</v>
       </c>
       <c r="E14">
-        <v>0.057560307681826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>5.7560307681826003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.002059659182606977</v>
+        <v>2.059659182606977E-3</v>
       </c>
       <c r="C15">
-        <v>0.04298658082235185</v>
+        <v>4.298658082235185E-2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06150664788137991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>6.1506647881379911E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5848,16 +5873,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.001452875947481807</v>
+        <v>1.4528759474818069E-3</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01294703703480314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.2947037034803139E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5865,16 +5890,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01576053202448271</v>
+        <v>1.5760532024482712E-2</v>
       </c>
       <c r="D17">
-        <v>0.0193125086722985</v>
+        <v>1.9312508672298501E-2</v>
       </c>
       <c r="E17">
-        <v>0.001903409447624706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>1.903409447624706E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5882,50 +5907,50 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.003204550112211493</v>
+        <v>3.2045501122114932E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2124446564317373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.21244465643173729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001666192999667304</v>
+        <v>1.6661929996673039E-3</v>
       </c>
       <c r="C19">
-        <v>2.213603397419649E-05</v>
+        <v>2.2136033974196489E-5</v>
       </c>
       <c r="D19">
-        <v>0.05439199059388611</v>
+        <v>5.4391990593886108E-2</v>
       </c>
       <c r="E19">
-        <v>0.0535763465048173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>5.3576346504817303E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09816995325729749</v>
+        <v>9.8169953257297493E-2</v>
       </c>
       <c r="C20">
-        <v>0.03358138663113211</v>
+        <v>3.358138663113211E-2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01876194516538633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1.8761945165386332E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5933,33 +5958,33 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2828164211551825</v>
+        <v>0.28281642115518252</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08643145777157769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>8.6431457771577694E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.004624404378931191</v>
+        <v>4.6244043789311906E-3</v>
       </c>
       <c r="C22">
-        <v>0.02635561173092207</v>
+        <v>2.635561173092207E-2</v>
       </c>
       <c r="D22">
-        <v>0.01954914338261737</v>
+        <v>1.954914338261737E-2</v>
       </c>
       <c r="E22">
-        <v>0.02394899158473332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>2.394899158473332E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5967,16 +5992,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.007004412553381228</v>
+        <v>7.0044125533812278E-3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1229896147965995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.12298961479659951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5984,50 +6009,50 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05650731050617123</v>
+        <v>5.6507310506171228E-2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02671660357840871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>2.6716603578408708E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.04753524869457437</v>
+        <v>4.7535248694574372E-2</v>
       </c>
       <c r="C25">
-        <v>0.05410082353112038</v>
+        <v>5.4100823531120383E-2</v>
       </c>
       <c r="D25">
-        <v>0.01253298702435557</v>
+        <v>1.253298702435557E-2</v>
       </c>
       <c r="E25">
-        <v>0.04558030818509989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>4.5580308185099887E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.009966226299700454</v>
+        <v>9.9662262997004536E-3</v>
       </c>
       <c r="C26">
-        <v>0.009283995178039316</v>
+        <v>9.2839951780393157E-3</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.000120981533747124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1.20981533747124E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6035,16 +6060,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.04916072384836208</v>
+        <v>4.9160723848362078E-2</v>
       </c>
       <c r="D27">
-        <v>0.01091828593597022</v>
+        <v>1.091828593597022E-2</v>
       </c>
       <c r="E27">
-        <v>0.02855962097334145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>2.855962097334145E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6052,16 +6077,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.07221741551142898</v>
+        <v>7.2217415511428976E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.1082862409018154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.10828624090181541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6069,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.0732068839474074</v>
+        <v>7.3206883947407403E-2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6078,12 +6103,12 @@
         <v>0.1147446786829905</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03791095700758862</v>
+        <v>3.7910957007588619E-2</v>
       </c>
       <c r="C30">
         <v>0.1728605765293231</v>
@@ -6092,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.01584424778881271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1.5844247788812708E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6103,33 +6128,33 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.04882327539225216</v>
+        <v>4.8823275392252161E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.03115993393312985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>3.1159933933129848E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01321918678950307</v>
+        <v>1.321918678950307E-2</v>
       </c>
       <c r="C32">
-        <v>0.0005157908835526213</v>
+        <v>5.1579088355262128E-4</v>
       </c>
       <c r="D32">
-        <v>0.01234723710176389</v>
+        <v>1.2347237101763889E-2</v>
       </c>
       <c r="E32">
-        <v>0.05833259398095865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>5.833259398095865E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6137,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.0003378744501494841</v>
+        <v>3.3787445014948409E-4</v>
       </c>
       <c r="D33">
-        <v>0.0247216609235561</v>
+        <v>2.4721660923556099E-2</v>
       </c>
       <c r="E33">
-        <v>0.02482215402175974</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>2.4822154021759739E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6154,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0175027734312903</v>
+        <v>1.7502773431290301E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.06660828427719628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>6.6608284277196284E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6171,67 +6196,67 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.04007907585625903</v>
+        <v>4.0079075856259028E-2</v>
       </c>
       <c r="D35">
-        <v>0.01838061892461917</v>
+        <v>1.8380618924619171E-2</v>
       </c>
       <c r="E35">
         <v>0.1440686685769795</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.00921577061503398</v>
+        <v>9.2157706150339802E-3</v>
       </c>
       <c r="C36">
-        <v>0.05455230715957877</v>
+        <v>5.4552307159578768E-2</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.04818806659109905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>4.8188066591099053E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.03217481449513038</v>
+        <v>3.2174814495130377E-2</v>
       </c>
       <c r="C37">
-        <v>0.05242792575780653</v>
+        <v>5.2427925757806533E-2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.2346006917853223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.23460069178532231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.03192521760079714</v>
+        <v>3.192521760079714E-2</v>
       </c>
       <c r="C38">
-        <v>0.1120026794989687</v>
+        <v>0.11200267949896869</v>
       </c>
       <c r="D38">
-        <v>0.007273568080726323</v>
+        <v>7.2735680807263234E-3</v>
       </c>
       <c r="E38">
-        <v>0.0402420581263269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>4.0242058126326898E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6239,33 +6264,33 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.01584297342948061</v>
+        <v>1.5842973429480611E-2</v>
       </c>
       <c r="D39">
-        <v>0.08243945482556092</v>
+        <v>8.2439454825560921E-2</v>
       </c>
       <c r="E39">
-        <v>0.05430303758735307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>5.4303037587353067E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01749096764023106</v>
+        <v>1.7490967640231059E-2</v>
       </c>
       <c r="C40">
-        <v>0.07679976569260778</v>
+        <v>7.6799765692607783E-2</v>
       </c>
       <c r="D40">
-        <v>0.001549272076366792</v>
+        <v>1.549272076366792E-3</v>
       </c>
       <c r="E40">
         <v>0.1320094213355032</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6273,16 +6298,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.1230769378053028</v>
+        <v>0.12307693780530279</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.01060505964385524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>1.060505964385524E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6290,16 +6315,16 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.001194636167984531</v>
+        <v>1.194636167984531E-3</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.02020319345468095</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.020319345468095E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6310,13 +6335,13 @@
         <v>0.1089874880035465</v>
       </c>
       <c r="D43">
-        <v>0.007291430335431004</v>
+        <v>7.2914303354310039E-3</v>
       </c>
       <c r="E43">
-        <v>0.02013945501269924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.0139455012699242E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6324,50 +6349,50 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.0001224629305739085</v>
+        <v>1.2246293057390851E-4</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.03915811877141556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>3.9158118771415562E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01351107326560008</v>
+        <v>1.351107326560008E-2</v>
       </c>
       <c r="C45">
-        <v>0.0225749502790902</v>
+        <v>2.2574950279090199E-2</v>
       </c>
       <c r="D45">
-        <v>0.03660623833444943</v>
+        <v>3.6606238334449433E-2</v>
       </c>
       <c r="E45">
-        <v>0.007858402752586629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>7.8584027525866289E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01604435869362253</v>
+        <v>1.6044358693622529E-2</v>
       </c>
       <c r="C46">
-        <v>0.01777997396640508</v>
+        <v>1.7779973966405078E-2</v>
       </c>
       <c r="D46">
-        <v>0.07875974272479613</v>
+        <v>7.8759742724796133E-2</v>
       </c>
       <c r="E46">
-        <v>0.03741023382964469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>3.7410233829644687E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6375,16 +6400,16 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.006355175122634091</v>
+        <v>6.3551751226340906E-3</v>
       </c>
       <c r="D47">
-        <v>0.04456319365982586</v>
+        <v>4.4563193659825862E-2</v>
       </c>
       <c r="E47">
-        <v>0.03824550536978016</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>3.8245505369780157E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6401,7 +6426,7 @@
         <v>0.1230037518884449</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6409,16 +6434,16 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.07769098139303707</v>
+        <v>7.7690981393037067E-2</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>7.10007388772735E-05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>7.1000738877273497E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6426,16 +6451,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.0120440280768216</v>
+        <v>1.2044028076821599E-2</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.06351927167830468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>6.3519271678304678E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6443,84 +6468,84 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.0009027025606470572</v>
+        <v>9.0270256064705723E-4</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.04089974720098172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>4.0899747200981718E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.03646725451125499</v>
+        <v>3.6467254511254987E-2</v>
       </c>
       <c r="C52">
-        <v>0.05146613752030715</v>
+        <v>5.1466137520307147E-2</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.04365911624458826</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>4.3659116244588257E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01956706405843289</v>
+        <v>1.9567064058432889E-2</v>
       </c>
       <c r="C53">
         <v>0.1175217872069434</v>
       </c>
       <c r="D53">
-        <v>0.08016463899811321</v>
+        <v>8.0164638998113213E-2</v>
       </c>
       <c r="E53">
-        <v>0.05085041827564935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>5.0850418275649352E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0159830895534061</v>
+        <v>1.5983089553406101E-2</v>
       </c>
       <c r="C54">
-        <v>0.03286472305532094</v>
+        <v>3.2864723055320941E-2</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.08747200864531118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>8.7472008645311183E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.03048403752184603</v>
+        <v>3.048403752184603E-2</v>
       </c>
       <c r="C55">
-        <v>0.05043451653233794</v>
+        <v>5.0434516532337943E-2</v>
       </c>
       <c r="D55">
-        <v>0.03153300747174481</v>
+        <v>3.1533007471744812E-2</v>
       </c>
       <c r="E55">
-        <v>0.010778011393841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1.0778011393841E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6528,50 +6553,50 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0.02765878960763185</v>
+        <v>2.7658789607631851E-2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.02026177984771423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>2.0261779847714229E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.03907466172392526</v>
+        <v>3.9074661723925257E-2</v>
       </c>
       <c r="C57">
-        <v>0.01542064504667181</v>
+        <v>1.5420645046671811E-2</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.01507486541033667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>1.5074865410336671E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.02409357555862868</v>
+        <v>2.4093575558628681E-2</v>
       </c>
       <c r="C58">
-        <v>0.01020590039918141</v>
+        <v>1.0205900399181411E-2</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.04128958414777659</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>4.1289584147776587E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6579,50 +6604,50 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.02722701154941328</v>
+        <v>2.7227011549413281E-2</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.02652530571843284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>2.652530571843284E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.08388409884230819</v>
+        <v>8.3884098842308186E-2</v>
       </c>
       <c r="C60">
-        <v>0.02057980283961635</v>
+        <v>2.057980283961635E-2</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.09229796426806254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>9.2297964268062541E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001777499821500106</v>
+        <v>1.7774998215001061E-3</v>
       </c>
       <c r="C61">
-        <v>0.002711269376769003</v>
+        <v>2.7112693767690028E-3</v>
       </c>
       <c r="D61">
-        <v>0.05111094415494466</v>
+        <v>5.111094415494466E-2</v>
       </c>
       <c r="E61">
-        <v>0.0003948241997827688</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>3.9482419978276878E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6636,27 +6661,27 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.005714507080946075</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>5.7145070809460751E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.07396364700764724</v>
+        <v>7.3963647007647237E-2</v>
       </c>
       <c r="C63">
-        <v>0.02966173964591855</v>
+        <v>2.9661739645918551E-2</v>
       </c>
       <c r="D63">
-        <v>0.05209845080034636</v>
+        <v>5.2098450800346363E-2</v>
       </c>
       <c r="E63">
-        <v>0.01042004064773576</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>1.0420040647735759E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6664,33 +6689,33 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.03938360732281551</v>
+        <v>3.9383607322815511E-2</v>
       </c>
       <c r="D64">
-        <v>0.03709244803118517</v>
+        <v>3.7092448031185173E-2</v>
       </c>
       <c r="E64">
-        <v>0.2422622985076368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.24226229850763681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.001206754777070662</v>
+        <v>1.2067547770706619E-3</v>
       </c>
       <c r="C65">
-        <v>0.004002410408466335</v>
+        <v>4.0024104084663351E-3</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.003623379072870924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>3.6233790728709241E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6698,101 +6723,101 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0.01916092390377751</v>
+        <v>1.9160923903777511E-2</v>
       </c>
       <c r="D66">
-        <v>0.0017361814907082</v>
+        <v>1.7361814907082E-3</v>
       </c>
       <c r="E66">
-        <v>0.07222861604750054</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>7.2228616047500541E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01303482436829873</v>
+        <v>1.303482436829873E-2</v>
       </c>
       <c r="C67">
         <v>0.1168903474300592</v>
       </c>
       <c r="D67">
-        <v>0.01598069428785243</v>
+        <v>1.598069428785243E-2</v>
       </c>
       <c r="E67">
-        <v>0.04942505887778889</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>4.9425058877788891E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.05494266798666847</v>
+        <v>5.494266798666847E-2</v>
       </c>
       <c r="C68">
-        <v>0.09924219855466401</v>
+        <v>9.9242198554664013E-2</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.06908235607780311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>6.9082356077803109E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01703249336596757</v>
+        <v>1.7032493365967571E-2</v>
       </c>
       <c r="C69">
-        <v>0.02822160804474574</v>
+        <v>2.8221608044745741E-2</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.1338601141248658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.13386011412486579</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01259930959067868</v>
+        <v>1.2599309590678681E-2</v>
       </c>
       <c r="C70">
-        <v>0.07703377907925274</v>
+        <v>7.703377907925274E-2</v>
       </c>
       <c r="D70">
-        <v>0.0117026331676866</v>
+        <v>1.1702633167686599E-2</v>
       </c>
       <c r="E70">
         <v>0.1165733144122003</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.08085392047686835</v>
+        <v>8.0853920476868346E-2</v>
       </c>
       <c r="C71">
-        <v>0.08219903330361167</v>
+        <v>8.2199033303611668E-2</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.01426508681975761</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>1.426508681975761E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6800,67 +6825,67 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0.00555585732966643</v>
+        <v>5.5558573296664304E-3</v>
       </c>
       <c r="D72">
-        <v>0.01479718481486936</v>
+        <v>1.4797184814869359E-2</v>
       </c>
       <c r="E72">
         <v>0.3740814189870792</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.04392890105184888</v>
+        <v>4.3928901051848879E-2</v>
       </c>
       <c r="C73">
-        <v>0.03527949165543467</v>
+        <v>3.5279491655434668E-2</v>
       </c>
       <c r="D73">
-        <v>0.0460841440128601</v>
+        <v>4.6084144012860102E-2</v>
       </c>
       <c r="E73">
         <v>0.1102704632774528</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.04879865118475668</v>
+        <v>4.8798651184756681E-2</v>
       </c>
       <c r="C74">
         <v>0.2087129679753402</v>
       </c>
       <c r="D74">
-        <v>0.00841891396291472</v>
+        <v>8.4189139629147203E-3</v>
       </c>
       <c r="E74">
-        <v>0.0098259582910766</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>9.8259582910765995E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.03546689307358664</v>
+        <v>3.5466893073586643E-2</v>
       </c>
       <c r="C75">
-        <v>0.3472097062271656</v>
+        <v>0.34720970622716563</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.1268950645573935</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.12689506455739349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6868,16 +6893,16 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.01026525905266493</v>
+        <v>1.026525905266493E-2</v>
       </c>
       <c r="D76">
-        <v>0.08430206589869815</v>
+        <v>8.4302065898698153E-2</v>
       </c>
       <c r="E76">
         <v>0.1170745906230798</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6888,18 +6913,18 @@
         <v>0.2177141332099802</v>
       </c>
       <c r="D77">
-        <v>0.03744071087944811</v>
+        <v>3.7440710879448107E-2</v>
       </c>
       <c r="E77">
-        <v>0.08568302143438028</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>8.568302143438028E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0271848002094508</v>
+        <v>2.7184800209450799E-2</v>
       </c>
       <c r="C78">
         <v>0.2731334321446085</v>
@@ -6908,44 +6933,44 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.03022322734542113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>3.0223227345421131E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.06792862939368249</v>
+        <v>6.7928629393682494E-2</v>
       </c>
       <c r="C79">
-        <v>0.07557280449664083</v>
+        <v>7.5572804496640833E-2</v>
       </c>
       <c r="D79">
-        <v>0.03177111731511761</v>
+        <v>3.1771117315117607E-2</v>
       </c>
       <c r="E79">
-        <v>0.03865561578867587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>3.8655615788675872E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.02020107701829721</v>
+        <v>2.0201077018297209E-2</v>
       </c>
       <c r="C80">
-        <v>0.06370664539746021</v>
+        <v>6.370664539746021E-2</v>
       </c>
       <c r="D80">
-        <v>0.02297589207252426</v>
+        <v>2.2975892072524259E-2</v>
       </c>
       <c r="E80">
-        <v>0.04476336034351655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>4.4763360343516551E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6953,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.04701490943414267</v>
+        <v>4.7014909434142667E-2</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6962,7 +6987,7 @@
         <v>0.1739185025024933</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6970,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.0953641782544917</v>
+        <v>9.5364178254491699E-2</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6979,24 +7004,24 @@
         <v>0.1240651444684487</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01345436097204566</v>
+        <v>1.345436097204566E-2</v>
       </c>
       <c r="C83">
-        <v>0.03655846309747066</v>
+        <v>3.6558463097470663E-2</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.03370304067479883</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>3.3703040674798831E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7004,16 +7029,16 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.005771112996422282</v>
+        <v>5.7711129964222816E-3</v>
       </c>
       <c r="D84">
-        <v>0.009019658247869211</v>
+        <v>9.0196582478692111E-3</v>
       </c>
       <c r="E84">
-        <v>0.004498460616177062</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>4.4984606161770618E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7021,33 +7046,33 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.05643196975029473</v>
+        <v>5.6431969750294728E-2</v>
       </c>
       <c r="D85">
-        <v>0.02415408522440132</v>
+        <v>2.4154085224401319E-2</v>
       </c>
       <c r="E85">
-        <v>8.520632812960871E-06</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>8.520632812960871E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.009850581710371564</v>
+        <v>9.8505817103715643E-3</v>
       </c>
       <c r="C86">
-        <v>0.04620445075911579</v>
+        <v>4.6204450759115792E-2</v>
       </c>
       <c r="D86">
-        <v>0.02866713796113873</v>
+        <v>2.866713796113873E-2</v>
       </c>
       <c r="E86">
-        <v>0.08741754037428043</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>8.7417540374280428E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7055,33 +7080,33 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0.001985786283695066</v>
+        <v>1.9857862836950659E-3</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.02916301268767332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>2.916301268767332E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.02707722202911711</v>
+        <v>2.707722202911711E-2</v>
       </c>
       <c r="C88">
-        <v>0.1657761338140318</v>
+        <v>0.16577613381403181</v>
       </c>
       <c r="D88">
-        <v>0.0481264489731219</v>
+        <v>4.8126448973121898E-2</v>
       </c>
       <c r="E88">
-        <v>0.03093616659939278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>3.093616659939278E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7089,84 +7114,84 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.0001819711597810534</v>
+        <v>1.8197115978105339E-4</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.02141958920612658</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>2.141958920612658E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.05564487513624417</v>
+        <v>5.5644875136244172E-2</v>
       </c>
       <c r="C90">
-        <v>0.04907078694124204</v>
+        <v>4.9070786941242041E-2</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.04833867120611055</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>4.8338671206110552E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.02440072454998798</v>
+        <v>2.4400724549987981E-2</v>
       </c>
       <c r="C91">
-        <v>0.0168173590499525</v>
+        <v>1.6817359049952501E-2</v>
       </c>
       <c r="D91">
-        <v>0.06386119098413889</v>
+        <v>6.3861190984138894E-2</v>
       </c>
       <c r="E91">
-        <v>0.08027356848878849</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>8.0273568488788485E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.01533457140488781</v>
+        <v>1.5334571404887811E-2</v>
       </c>
       <c r="C92">
-        <v>0.004886621381715937</v>
+        <v>4.8866213817159374E-3</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.1874961512991548</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.18749615129915481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.05691882048913666</v>
+        <v>5.6918820489136657E-2</v>
       </c>
       <c r="C93">
-        <v>1.191009297425966E-06</v>
+        <v>1.1910092974259659E-6</v>
       </c>
       <c r="D93">
-        <v>0.001110148167306368</v>
+        <v>1.110148167306368E-3</v>
       </c>
       <c r="E93">
-        <v>0.01670139624766476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>1.6701396247664761E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7174,33 +7199,33 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.0257125577621868</v>
+        <v>2.57125577621868E-2</v>
       </c>
       <c r="D94">
-        <v>0.07786265005138726</v>
+        <v>7.7862650051387261E-2</v>
       </c>
       <c r="E94">
-        <v>0.03035792300820427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>3.0357923008204269E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.06187146803079324</v>
+        <v>6.1871468030793242E-2</v>
       </c>
       <c r="C95">
-        <v>0.00364791326142777</v>
+        <v>3.6479132614277701E-3</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0.05395569113790084</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>5.3955691137900837E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7208,98 +7233,98 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.05514718887670927</v>
+        <v>5.5147188876709267E-2</v>
       </c>
       <c r="D96">
-        <v>0.00610219559356473</v>
+        <v>6.1021955935647298E-3</v>
       </c>
       <c r="E96">
-        <v>0.1150105326202401</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.11501053262024009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.05639726602021367</v>
+        <v>5.6397266020213672E-2</v>
       </c>
       <c r="C97">
-        <v>0.02817529746364439</v>
+        <v>2.8175297463644389E-2</v>
       </c>
       <c r="D97">
-        <v>0.02859486374412734</v>
+        <v>2.8594863744127341E-2</v>
       </c>
       <c r="E97">
         <v>0.1038625931170397</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.02205973951163465</v>
+        <v>2.205973951163465E-2</v>
       </c>
       <c r="C98">
-        <v>0.02291154924389219</v>
+        <v>2.2911549243892191E-2</v>
       </c>
       <c r="D98">
-        <v>0.06630043088080906</v>
+        <v>6.6300430880809058E-2</v>
       </c>
       <c r="E98">
-        <v>0.0390524094258695</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>3.9052409425869503E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.08652876979335833</v>
+        <v>8.6528769793358329E-2</v>
       </c>
       <c r="C99">
         <v>0.4079003936525335</v>
       </c>
       <c r="D99">
-        <v>0.01841093948125594</v>
+        <v>1.8410939481255939E-2</v>
       </c>
       <c r="E99">
-        <v>0.04818098254449869</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>4.8180982544498693E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.03915624680551044</v>
+        <v>3.9156246805510442E-2</v>
       </c>
       <c r="C100">
-        <v>0.1514676837518013</v>
+        <v>0.15146768375180131</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.2253046820747985</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.22530468207479851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.04955185996428146</v>
+        <v>4.9551859964281457E-2</v>
       </c>
       <c r="C101">
-        <v>0.2848524047041269</v>
+        <v>0.28485240470412693</v>
       </c>
       <c r="D101">
-        <v>0.01867908507834892</v>
+        <v>1.8679085078348919E-2</v>
       </c>
       <c r="E101">
-        <v>0.01699035673421383</v>
+        <v>1.699035673421383E-2</v>
       </c>
     </row>
   </sheetData>
